--- a/108學年原住民族部落國小學校校別概覽_全國(不含澎湖、金門、連江縣).xlsx
+++ b/108學年原住民族部落國小學校校別概覽_全國(不含澎湖、金門、連江縣).xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\indigenous\About-indigenous-statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216F0266-204B-40F7-AE0D-9FEFC4E1173E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1AEA8F-4B21-4A95-9485-37685D5CAC94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="108學年原住民族部落國小學校校別概覽_全國(不含澎湖、金門、" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2871" uniqueCount="1163">
   <si>
     <t>ID</t>
   </si>
@@ -2539,6 +2538,1015 @@
   <si>
     <t>臺東縣</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TW97經緯度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.863038,121.554224</t>
+  </si>
+  <si>
+    <t>24.777316,121.501979</t>
+  </si>
+  <si>
+    <t>24.488603,121.426309</t>
+  </si>
+  <si>
+    <t>24.43738,121.380362</t>
+  </si>
+  <si>
+    <t>24.678457,121.608901</t>
+  </si>
+  <si>
+    <t>24.609292,121.687369</t>
+  </si>
+  <si>
+    <t>24.467302,121.800587</t>
+  </si>
+  <si>
+    <t>24.474119,121.784688</t>
+  </si>
+  <si>
+    <t>24.445589,121.778538</t>
+  </si>
+  <si>
+    <t>24.329312,121.739569</t>
+  </si>
+  <si>
+    <t>24.521552,121.832973</t>
+  </si>
+  <si>
+    <t>24.4712,121.777017</t>
+  </si>
+  <si>
+    <t>24.425935,121.74933</t>
+  </si>
+  <si>
+    <t>24.815687,121.350951</t>
+  </si>
+  <si>
+    <t>24.812606,121.324674</t>
+  </si>
+  <si>
+    <t>24.795994,121.389954</t>
+  </si>
+  <si>
+    <t>24.821709,121.381396</t>
+  </si>
+  <si>
+    <t>24.797303,121.334354</t>
+  </si>
+  <si>
+    <t>24.637188,121.404796</t>
+  </si>
+  <si>
+    <t>24.712107,121.360501</t>
+  </si>
+  <si>
+    <t>24.800124,121.30754</t>
+  </si>
+  <si>
+    <t>24.661734,121.355247</t>
+  </si>
+  <si>
+    <t>24.805559,121.36788</t>
+  </si>
+  <si>
+    <t>24.685672,121.397317</t>
+  </si>
+  <si>
+    <t>24.702893,121.05411</t>
+  </si>
+  <si>
+    <t>24.790302,121.183916</t>
+  </si>
+  <si>
+    <t>24.800973,121.140246</t>
+  </si>
+  <si>
+    <t>24.810295,121.118838</t>
+  </si>
+  <si>
+    <t>24.776401,121.176007</t>
+  </si>
+  <si>
+    <t>24.768678,121.22532</t>
+  </si>
+  <si>
+    <t>24.757551,121.208677</t>
+  </si>
+  <si>
+    <t>24.6991,121.192646</t>
+  </si>
+  <si>
+    <t>24.705256,121.210711</t>
+  </si>
+  <si>
+    <t>24.731741,121.250464</t>
+  </si>
+  <si>
+    <t>24.677794,121.208948</t>
+  </si>
+  <si>
+    <t>24.680253,121.246791</t>
+  </si>
+  <si>
+    <t>24.660115,121.301204</t>
+  </si>
+  <si>
+    <t>24.655545,121.326417</t>
+  </si>
+  <si>
+    <t>24.618203,121.285664</t>
+  </si>
+  <si>
+    <t>24.579903,121.303174</t>
+  </si>
+  <si>
+    <t>24.630245,121.117779</t>
+  </si>
+  <si>
+    <t>24.574894,121.105418</t>
+  </si>
+  <si>
+    <t>24.648011,121.151503</t>
+  </si>
+  <si>
+    <t>24.600358,120.999305</t>
+  </si>
+  <si>
+    <t>24.62934,121.008482</t>
+  </si>
+  <si>
+    <t>24.635183,120.973064</t>
+  </si>
+  <si>
+    <t>24.600582,121.040398</t>
+  </si>
+  <si>
+    <t>24.542802,120.970819</t>
+  </si>
+  <si>
+    <t>24.540085,120.920569</t>
+  </si>
+  <si>
+    <t>24.573676,120.936491</t>
+  </si>
+  <si>
+    <t>24.421406,120.909241</t>
+  </si>
+  <si>
+    <t>24.394243,120.920679</t>
+  </si>
+  <si>
+    <t>24.439961,120.926521</t>
+  </si>
+  <si>
+    <t>24.460208,120.922185</t>
+  </si>
+  <si>
+    <t>24.359989,120.947039</t>
+  </si>
+  <si>
+    <t>24.388136,120.971146</t>
+  </si>
+  <si>
+    <t>24.347888,120.930408</t>
+  </si>
+  <si>
+    <t>24.170987,120.895552</t>
+  </si>
+  <si>
+    <t>24.183496,120.930305</t>
+  </si>
+  <si>
+    <t>24.327904,120.920778</t>
+  </si>
+  <si>
+    <t>24.236586,120.879956</t>
+  </si>
+  <si>
+    <t>24.31727,121.293573</t>
+  </si>
+  <si>
+    <t>24.177052,120.979383</t>
+  </si>
+  <si>
+    <t>24.291388,120.908951</t>
+  </si>
+  <si>
+    <t>24.255927,121.259682</t>
+  </si>
+  <si>
+    <t>23.898952,120.937311</t>
+  </si>
+  <si>
+    <t>23.890466,120.966696</t>
+  </si>
+  <si>
+    <t>23.890896,120.889143</t>
+  </si>
+  <si>
+    <t>23.904191,120.924251</t>
+  </si>
+  <si>
+    <t>23.848534,120.93547</t>
+  </si>
+  <si>
+    <t>23.919214,120.966261</t>
+  </si>
+  <si>
+    <t>23.697933,120.854739</t>
+  </si>
+  <si>
+    <t>23.628338,120.87009</t>
+  </si>
+  <si>
+    <t>23.593848,120.887789</t>
+  </si>
+  <si>
+    <t>23.693862,120.848623</t>
+  </si>
+  <si>
+    <t>23.779746,120.897032</t>
+  </si>
+  <si>
+    <t>23.794194,120.943374</t>
+  </si>
+  <si>
+    <t>23.562256,120.927625</t>
+  </si>
+  <si>
+    <t>23.821298,120.940253</t>
+  </si>
+  <si>
+    <t>23.563401,120.867746</t>
+  </si>
+  <si>
+    <t>23.639873,120.869436</t>
+  </si>
+  <si>
+    <t>23.615478,120.884319</t>
+  </si>
+  <si>
+    <t>23.785727,120.950278</t>
+  </si>
+  <si>
+    <t>23.670289,120.87513</t>
+  </si>
+  <si>
+    <t>24.020472,121.133247</t>
+  </si>
+  <si>
+    <t>23.967764,121.109248</t>
+  </si>
+  <si>
+    <t>23.916706,121.046193</t>
+  </si>
+  <si>
+    <t>24.086275,121.216619</t>
+  </si>
+  <si>
+    <t>24.06306,120.969626</t>
+  </si>
+  <si>
+    <t>24.148298,121.189337</t>
+  </si>
+  <si>
+    <t>24.000306,121.078613</t>
+  </si>
+  <si>
+    <t>23.904648,120.99119</t>
+  </si>
+  <si>
+    <t>24.035074,121.186213</t>
+  </si>
+  <si>
+    <t>24.123869,121.157417</t>
+  </si>
+  <si>
+    <t>23.946871,121.076248</t>
+  </si>
+  <si>
+    <t>24.059516,121.192195</t>
+  </si>
+  <si>
+    <t>24.028052,121.148787</t>
+  </si>
+  <si>
+    <t>24.159708,121.177232</t>
+  </si>
+  <si>
+    <t>24.044545,121.158584</t>
+  </si>
+  <si>
+    <t>23.453204,120.749376</t>
+  </si>
+  <si>
+    <t>23.492485,120.75402</t>
+  </si>
+  <si>
+    <t>23.529713,120.740007</t>
+  </si>
+  <si>
+    <t>23.383138,120.668975</t>
+  </si>
+  <si>
+    <t>23.337733,120.683345</t>
+  </si>
+  <si>
+    <t>23.468532,120.701398</t>
+  </si>
+  <si>
+    <t>23.516493,120.808613</t>
+  </si>
+  <si>
+    <t>23.300346,120.666749</t>
+  </si>
+  <si>
+    <t>23.27634,120.721363</t>
+  </si>
+  <si>
+    <t>22.88592,120.664333</t>
+  </si>
+  <si>
+    <t>22.910415,120.716461</t>
+  </si>
+  <si>
+    <t>23.160472,120.765756</t>
+  </si>
+  <si>
+    <t>23.105131,120.682515</t>
+  </si>
+  <si>
+    <t>23.128565,120.719029</t>
+  </si>
+  <si>
+    <t>23.035647,120.709081</t>
+  </si>
+  <si>
+    <t>23.252766,120.819366</t>
+  </si>
+  <si>
+    <t>23.247281,120.702499</t>
+  </si>
+  <si>
+    <t>22.020382,120.838101</t>
+  </si>
+  <si>
+    <t>22.075527,120.828649</t>
+  </si>
+  <si>
+    <t>22.005679,120.817377</t>
+  </si>
+  <si>
+    <t>22.714903,120.654518</t>
+  </si>
+  <si>
+    <t>22.817112,120.641368</t>
+  </si>
+  <si>
+    <t>22.83828,120.639288</t>
+  </si>
+  <si>
+    <t>22.770344,120.64481</t>
+  </si>
+  <si>
+    <t>22.653103,120.630764</t>
+  </si>
+  <si>
+    <t>22.706688,120.646516</t>
+  </si>
+  <si>
+    <t>22.745244,120.731319</t>
+  </si>
+  <si>
+    <t>22.578386,120.634462</t>
+  </si>
+  <si>
+    <t>22.605613,120.61082</t>
+  </si>
+  <si>
+    <t>22.626766,120.638038</t>
+  </si>
+  <si>
+    <t>22.527948,120.649284</t>
+  </si>
+  <si>
+    <t>22.46282,120.62303</t>
+  </si>
+  <si>
+    <t>22.492982,120.623526</t>
+  </si>
+  <si>
+    <t>22.436443,120.642631</t>
+  </si>
+  <si>
+    <t>22.527569,120.625908</t>
+  </si>
+  <si>
+    <t>22.370293,120.627017</t>
+  </si>
+  <si>
+    <t>22.42766,120.629041</t>
+  </si>
+  <si>
+    <t>22.361034,120.625992</t>
+  </si>
+  <si>
+    <t>22.202065,120.704813</t>
+  </si>
+  <si>
+    <t>22.203353,120.751471</t>
+  </si>
+  <si>
+    <t>22.297729,120.646004</t>
+  </si>
+  <si>
+    <t>22.234732,120.803213</t>
+  </si>
+  <si>
+    <t>22.12581,120.772518</t>
+  </si>
+  <si>
+    <t>22.124771,120.846985</t>
+  </si>
+  <si>
+    <t>22.176637,120.837682</t>
+  </si>
+  <si>
+    <t>22.743992,120.639813</t>
+  </si>
+  <si>
+    <t>22.698503,120.642799</t>
+  </si>
+  <si>
+    <t>22.755307,121.147247</t>
+  </si>
+  <si>
+    <t>22.757352,121.158858</t>
+  </si>
+  <si>
+    <t>22.747096,121.151484</t>
+  </si>
+  <si>
+    <t>22.768704,121.129201</t>
+  </si>
+  <si>
+    <t>22.76218,121.151164</t>
+  </si>
+  <si>
+    <t>22.764138,121.142075</t>
+  </si>
+  <si>
+    <t>22.737098,121.122111</t>
+  </si>
+  <si>
+    <t>22.74743,121.136821</t>
+  </si>
+  <si>
+    <t>22.76538,121.135664</t>
+  </si>
+  <si>
+    <t>22.73013,121.108325</t>
+  </si>
+  <si>
+    <t>22.755454,121.11948</t>
+  </si>
+  <si>
+    <t>22.771781,121.111427</t>
+  </si>
+  <si>
+    <t>22.781848,121.11923</t>
+  </si>
+  <si>
+    <t>22.805913,121.124892</t>
+  </si>
+  <si>
+    <t>22.78896,121.114333</t>
+  </si>
+  <si>
+    <t>22.7057,121.054493</t>
+  </si>
+  <si>
+    <t>22.716736,121.049167</t>
+  </si>
+  <si>
+    <t>22.774815,121.086749</t>
+  </si>
+  <si>
+    <t>22.796183,121.19389</t>
+  </si>
+  <si>
+    <t>22.765066,121.062352</t>
+  </si>
+  <si>
+    <t>22.807137,121.093574</t>
+  </si>
+  <si>
+    <t>22.697667,121.02593</t>
+  </si>
+  <si>
+    <t>22.77697,121.062908</t>
+  </si>
+  <si>
+    <t>22.860167,121.092081</t>
+  </si>
+  <si>
+    <t>22.835595,121.082405</t>
+  </si>
+  <si>
+    <t>22.850543,121.191351</t>
+  </si>
+  <si>
+    <t>22.764927,121.043038</t>
+  </si>
+  <si>
+    <t>22.790805,121.075772</t>
+  </si>
+  <si>
+    <t>22.612995,121.003862</t>
+  </si>
+  <si>
+    <t>22.58776,120.993452</t>
+  </si>
+  <si>
+    <t>22.672406,121.037245</t>
+  </si>
+  <si>
+    <t>22.687685,121.044275</t>
+  </si>
+  <si>
+    <t>22.462403,120.941524</t>
+  </si>
+  <si>
+    <t>22.339864,120.888285</t>
+  </si>
+  <si>
+    <t>22.365175,120.905008</t>
+  </si>
+  <si>
+    <t>22.383242,120.910495</t>
+  </si>
+  <si>
+    <t>22.909392,121.137013</t>
+  </si>
+  <si>
+    <t>22.904233,121.124251</t>
+  </si>
+  <si>
+    <t>22.93362,121.12835</t>
+  </si>
+  <si>
+    <t>22.979066,121.136934</t>
+  </si>
+  <si>
+    <t>22.957844,121.155446</t>
+  </si>
+  <si>
+    <t>23.050617,121.164718</t>
+  </si>
+  <si>
+    <t>23.009385,121.14848</t>
+  </si>
+  <si>
+    <t>23.073942,121.177977</t>
+  </si>
+  <si>
+    <t>23.006108,121.173353</t>
+  </si>
+  <si>
+    <t>23.125069,121.215367</t>
+  </si>
+  <si>
+    <t>23.125545,121.230773</t>
+  </si>
+  <si>
+    <t>23.095275,121.218752</t>
+  </si>
+  <si>
+    <t>22.956452,121.292314</t>
+  </si>
+  <si>
+    <t>22.877955,121.226932</t>
+  </si>
+  <si>
+    <t>22.998414,121.285041</t>
+  </si>
+  <si>
+    <t>23.039731,121.292706</t>
+  </si>
+  <si>
+    <t>23.10184,121.371283</t>
+  </si>
+  <si>
+    <t>23.102212,121.382624</t>
+  </si>
+  <si>
+    <t>23.02686,121.330869</t>
+  </si>
+  <si>
+    <t>23.120311,121.393754</t>
+  </si>
+  <si>
+    <t>23.156879,121.399532</t>
+  </si>
+  <si>
+    <t>23.306155,121.443159</t>
+  </si>
+  <si>
+    <t>23.224122,121.415615</t>
+  </si>
+  <si>
+    <t>23.285694,121.428547</t>
+  </si>
+  <si>
+    <t>23.341362,121.461784</t>
+  </si>
+  <si>
+    <t>23.415621,121.472322</t>
+  </si>
+  <si>
+    <t>22.595122,120.96138</t>
+  </si>
+  <si>
+    <t>22.604513,120.996656</t>
+  </si>
+  <si>
+    <t>22.631657,121.003091</t>
+  </si>
+  <si>
+    <t>22.532404,120.95583</t>
+  </si>
+  <si>
+    <t>22.294293,120.868276</t>
+  </si>
+  <si>
+    <t>22.453554,120.887515</t>
+  </si>
+  <si>
+    <t>22.477615,120.907378</t>
+  </si>
+  <si>
+    <t>22.026946,121.544121</t>
+  </si>
+  <si>
+    <t>22.045091,121.517157</t>
+  </si>
+  <si>
+    <t>22.05685,121.564695</t>
+  </si>
+  <si>
+    <t>22.079623,121.528425</t>
+  </si>
+  <si>
+    <t>22.902863,121.083689</t>
+  </si>
+  <si>
+    <t>22.969873,121.116342</t>
+  </si>
+  <si>
+    <t>22.898034,121.149684</t>
+  </si>
+  <si>
+    <t>22.893495,121.063654</t>
+  </si>
+  <si>
+    <t>23.101469,121.176179</t>
+  </si>
+  <si>
+    <t>23.117114,121.169866</t>
+  </si>
+  <si>
+    <t>23.044968,121.146483</t>
+  </si>
+  <si>
+    <t>23.149564,121.207101</t>
+  </si>
+  <si>
+    <t>23.132207,121.176151</t>
+  </si>
+  <si>
+    <t>23.001067,121.130619</t>
+  </si>
+  <si>
+    <t>22.752569,121.140285</t>
+  </si>
+  <si>
+    <t>23.16932,121.041568</t>
+  </si>
+  <si>
+    <t>22.895201,121.248432</t>
+  </si>
+  <si>
+    <t>23.991018,121.622569</t>
+  </si>
+  <si>
+    <t>23.992157,121.624797</t>
+  </si>
+  <si>
+    <t>23.980025,121.610557</t>
+  </si>
+  <si>
+    <t>23.978974,121.602899</t>
+  </si>
+  <si>
+    <t>23.995007,121.594718</t>
+  </si>
+  <si>
+    <t>23.99183,121.631002</t>
+  </si>
+  <si>
+    <t>23.971689,121.599711</t>
+  </si>
+  <si>
+    <t>23.971144,121.606227</t>
+  </si>
+  <si>
+    <t>24.006713,121.619302</t>
+  </si>
+  <si>
+    <t>23.991964,121.607044</t>
+  </si>
+  <si>
+    <t>23.975649,121.598639</t>
+  </si>
+  <si>
+    <t>23.977893,121.616234</t>
+  </si>
+  <si>
+    <t>23.992815,121.625537</t>
+  </si>
+  <si>
+    <t>24.009091,121.580299</t>
+  </si>
+  <si>
+    <t>24.127935,121.65148</t>
+  </si>
+  <si>
+    <t>24.032095,121.605392</t>
+  </si>
+  <si>
+    <t>24.052503,121.607778</t>
+  </si>
+  <si>
+    <t>24.014653,121.609183</t>
+  </si>
+  <si>
+    <t>23.973416,121.56281</t>
+  </si>
+  <si>
+    <t>23.971077,121.585515</t>
+  </si>
+  <si>
+    <t>23.987103,121.592085</t>
+  </si>
+  <si>
+    <t>23.963231,121.569151</t>
+  </si>
+  <si>
+    <t>23.935441,121.579143</t>
+  </si>
+  <si>
+    <t>23.94841,121.547487</t>
+  </si>
+  <si>
+    <t>23.962753,121.595908</t>
+  </si>
+  <si>
+    <t>23.995181,121.565122</t>
+  </si>
+  <si>
+    <t>23.870367,121.507951</t>
+  </si>
+  <si>
+    <t>23.846421,121.491777</t>
+  </si>
+  <si>
+    <t>23.841568,121.507821</t>
+  </si>
+  <si>
+    <t>23.904977,121.531851</t>
+  </si>
+  <si>
+    <t>23.884061,121.519368</t>
+  </si>
+  <si>
+    <t>23.819553,121.473539</t>
+  </si>
+  <si>
+    <t>23.868397,121.556557</t>
+  </si>
+  <si>
+    <t>23.782957,121.563609</t>
+  </si>
+  <si>
+    <t>23.742943,121.447179</t>
+  </si>
+  <si>
+    <t>23.754195,121.468369</t>
+  </si>
+  <si>
+    <t>23.751224,121.451826</t>
+  </si>
+  <si>
+    <t>23.771563,121.468265</t>
+  </si>
+  <si>
+    <t>23.709453,121.420104</t>
+  </si>
+  <si>
+    <t>23.801235,121.452848</t>
+  </si>
+  <si>
+    <t>23.673706,121.427004</t>
+  </si>
+  <si>
+    <t>23.660091,121.448397</t>
+  </si>
+  <si>
+    <t>23.654883,121.419285</t>
+  </si>
+  <si>
+    <t>23.497064,121.373809</t>
+  </si>
+  <si>
+    <t>23.525771,121.378639</t>
+  </si>
+  <si>
+    <t>23.493117,121.391573</t>
+  </si>
+  <si>
+    <t>23.522887,121.390379</t>
+  </si>
+  <si>
+    <t>23.458864,121.35232</t>
+  </si>
+  <si>
+    <t>23.578619,121.375572</t>
+  </si>
+  <si>
+    <t>23.598581,121.521095</t>
+  </si>
+  <si>
+    <t>23.482002,121.508405</t>
+  </si>
+  <si>
+    <t>23.461561,121.49549</t>
+  </si>
+  <si>
+    <t>23.651931,121.535861</t>
+  </si>
+  <si>
+    <t>23.328496,121.319138</t>
+  </si>
+  <si>
+    <t>23.324907,121.317467</t>
+  </si>
+  <si>
+    <t>23.321624,121.299751</t>
+  </si>
+  <si>
+    <t>23.32138,121.339273</t>
+  </si>
+  <si>
+    <t>23.394572,121.357188</t>
+  </si>
+  <si>
+    <t>23.382881,121.359052</t>
+  </si>
+  <si>
+    <t>23.428647,121.373479</t>
+  </si>
+  <si>
+    <t>23.452059,121.393025</t>
+  </si>
+  <si>
+    <t>23.465877,121.40557</t>
+  </si>
+  <si>
+    <t>23.429877,121.348449</t>
+  </si>
+  <si>
+    <t>23.379901,121.328809</t>
+  </si>
+  <si>
+    <t>23.284564,121.286975</t>
+  </si>
+  <si>
+    <t>23.172188,121.248453</t>
+  </si>
+  <si>
+    <t>23.265481,121.302998</t>
+  </si>
+  <si>
+    <t>23.201352,121.248719</t>
+  </si>
+  <si>
+    <t>23.278677,121.322606</t>
+  </si>
+  <si>
+    <t>23.155448,121.227145</t>
+  </si>
+  <si>
+    <t>23.154782,121.266614</t>
+  </si>
+  <si>
+    <t>23.253997,121.297527</t>
+  </si>
+  <si>
+    <t>23.21418,121.279779</t>
+  </si>
+  <si>
+    <t>24.118008,121.624427</t>
+  </si>
+  <si>
+    <t>24.147369,121.629529</t>
+  </si>
+  <si>
+    <t>24.169165,121.654421</t>
+  </si>
+  <si>
+    <t>24.307774,121.748554</t>
+  </si>
+  <si>
+    <t>24.082571,121.605871</t>
+  </si>
+  <si>
+    <t>24.102808,121.606459</t>
+  </si>
+  <si>
+    <t>24.053934,121.599388</t>
+  </si>
+  <si>
+    <t>23.965506,121.493218</t>
+  </si>
+  <si>
+    <t>24.003331,121.556867</t>
+  </si>
+  <si>
+    <t>23.892304,121.501599</t>
+  </si>
+  <si>
+    <t>23.92225,121.501594</t>
+  </si>
+  <si>
+    <t>23.715531,121.411005</t>
+  </si>
+  <si>
+    <t>23.705647,121.41236</t>
+  </si>
+  <si>
+    <t>23.783681,121.451891</t>
+  </si>
+  <si>
+    <t>23.576774,121.361764</t>
+  </si>
+  <si>
+    <t>23.811434,121.441005</t>
+  </si>
+  <si>
+    <t>23.49463,121.345447</t>
+  </si>
+  <si>
+    <t>23.345458,121.303159</t>
+  </si>
+  <si>
+    <t>23.439121,121.344269</t>
+  </si>
+  <si>
+    <t>23.430999,121.320691</t>
+  </si>
+  <si>
+    <t>23.406026,121.320497</t>
+  </si>
+  <si>
+    <t>23.27831,121.272828</t>
+  </si>
+  <si>
+    <t>23.295916,121.267409</t>
+  </si>
+  <si>
+    <t>23.219247,121.264571</t>
+  </si>
+  <si>
+    <t>23.497526,121.445869</t>
+  </si>
+  <si>
+    <t>23.243771,121.271995</t>
+  </si>
+  <si>
+    <t>23.636739,121.429999</t>
+  </si>
+  <si>
+    <t>23.63233,121.398157</t>
+  </si>
+  <si>
+    <t>24.206759,121.48259</t>
+  </si>
+  <si>
+    <t>23.971763,121.596448</t>
   </si>
 </sst>
 </file>
@@ -3511,8 +4519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A337"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3619,6 +4627,9 @@
       <c r="E2" t="s">
         <v>32</v>
       </c>
+      <c r="F2" t="s">
+        <v>827</v>
+      </c>
       <c r="G2" t="s">
         <v>33</v>
       </c>
@@ -3756,6 +4767,9 @@
       <c r="E3">
         <v>2750721.3960000002</v>
       </c>
+      <c r="F3" t="s">
+        <v>828</v>
+      </c>
       <c r="G3" t="s">
         <v>58</v>
       </c>
@@ -3912,6 +4926,9 @@
       <c r="E4">
         <v>2741206.2769999998</v>
       </c>
+      <c r="F4" t="s">
+        <v>829</v>
+      </c>
       <c r="G4" t="s">
         <v>58</v>
       </c>
@@ -4065,6 +5082,9 @@
       <c r="E5">
         <v>2709202.88</v>
       </c>
+      <c r="F5" t="s">
+        <v>830</v>
+      </c>
       <c r="G5" t="s">
         <v>130</v>
       </c>
@@ -4218,6 +5238,9 @@
       <c r="E6">
         <v>2703516.02</v>
       </c>
+      <c r="F6" t="s">
+        <v>831</v>
+      </c>
       <c r="G6" t="s">
         <v>130</v>
       </c>
@@ -4370,6 +5393,9 @@
       </c>
       <c r="E7">
         <v>2730300.35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>832</v>
       </c>
       <c r="G7" t="s">
         <v>130</v>
@@ -4511,6 +5537,9 @@
       <c r="E8">
         <v>2722677.06</v>
       </c>
+      <c r="F8" t="s">
+        <v>833</v>
+      </c>
       <c r="G8" t="s">
         <v>130</v>
       </c>
@@ -4651,6 +5680,9 @@
       <c r="E9">
         <v>2707011.88</v>
       </c>
+      <c r="F9" t="s">
+        <v>834</v>
+      </c>
       <c r="G9" t="s">
         <v>130</v>
       </c>
@@ -4791,6 +5823,9 @@
       <c r="E10">
         <v>2707757.6949999998</v>
       </c>
+      <c r="F10" t="s">
+        <v>835</v>
+      </c>
       <c r="G10" t="s">
         <v>130</v>
       </c>
@@ -4931,6 +5966,9 @@
       <c r="E11">
         <v>2704594.18</v>
       </c>
+      <c r="F11" t="s">
+        <v>836</v>
+      </c>
       <c r="G11" t="s">
         <v>130</v>
       </c>
@@ -5071,6 +6109,9 @@
       <c r="E12">
         <v>2691693.82</v>
       </c>
+      <c r="F12" t="s">
+        <v>837</v>
+      </c>
       <c r="G12" t="s">
         <v>130</v>
       </c>
@@ -5211,6 +6252,9 @@
       <c r="E13">
         <v>2713040.11</v>
       </c>
+      <c r="F13" t="s">
+        <v>838</v>
+      </c>
       <c r="G13" t="s">
         <v>130</v>
       </c>
@@ -5351,6 +6395,9 @@
       <c r="E14">
         <v>2707430.01</v>
       </c>
+      <c r="F14" t="s">
+        <v>839</v>
+      </c>
       <c r="G14" t="s">
         <v>130</v>
       </c>
@@ -5491,6 +6538,9 @@
       <c r="E15">
         <v>2702401.02</v>
       </c>
+      <c r="F15" t="s">
+        <v>840</v>
+      </c>
       <c r="G15" t="s">
         <v>130</v>
       </c>
@@ -5615,6 +6665,9 @@
       <c r="E16">
         <v>2745408.6</v>
       </c>
+      <c r="F16" t="s">
+        <v>841</v>
+      </c>
       <c r="G16" t="s">
         <v>66</v>
       </c>
@@ -5745,6 +6798,9 @@
       <c r="E17">
         <v>2745060.77</v>
       </c>
+      <c r="F17" t="s">
+        <v>842</v>
+      </c>
       <c r="G17" t="s">
         <v>66</v>
       </c>
@@ -5876,6 +6932,9 @@
       <c r="E18">
         <v>2743238.1</v>
       </c>
+      <c r="F18" t="s">
+        <v>843</v>
+      </c>
       <c r="G18" t="s">
         <v>66</v>
       </c>
@@ -6007,6 +7066,9 @@
       <c r="E19">
         <v>2746083.88</v>
       </c>
+      <c r="F19" t="s">
+        <v>844</v>
+      </c>
       <c r="G19" t="s">
         <v>66</v>
       </c>
@@ -6131,6 +7193,9 @@
       <c r="E20">
         <v>2743368.19</v>
       </c>
+      <c r="F20" t="s">
+        <v>845</v>
+      </c>
       <c r="G20" t="s">
         <v>66</v>
       </c>
@@ -6257,6 +7322,9 @@
       <c r="E21">
         <v>2725653.21</v>
       </c>
+      <c r="F21" t="s">
+        <v>846</v>
+      </c>
       <c r="G21" t="s">
         <v>66</v>
       </c>
@@ -6383,6 +7451,9 @@
       <c r="E22">
         <v>2733938.62</v>
       </c>
+      <c r="F22" t="s">
+        <v>847</v>
+      </c>
       <c r="G22" t="s">
         <v>66</v>
       </c>
@@ -6509,6 +7580,9 @@
       <c r="E23">
         <v>2743674.26</v>
       </c>
+      <c r="F23" t="s">
+        <v>848</v>
+      </c>
       <c r="G23" t="s">
         <v>66</v>
       </c>
@@ -6629,6 +7703,9 @@
       <c r="E24">
         <v>2728357.93</v>
       </c>
+      <c r="F24" t="s">
+        <v>849</v>
+      </c>
       <c r="G24" t="s">
         <v>66</v>
       </c>
@@ -6749,6 +7826,9 @@
       <c r="E25">
         <v>2744291.29</v>
       </c>
+      <c r="F25" t="s">
+        <v>850</v>
+      </c>
       <c r="G25" t="s">
         <v>66</v>
       </c>
@@ -6869,6 +7949,9 @@
       <c r="E26">
         <v>2731020.93</v>
       </c>
+      <c r="F26" t="s">
+        <v>851</v>
+      </c>
       <c r="G26" t="s">
         <v>66</v>
       </c>
@@ -6989,6 +8072,9 @@
       <c r="E27">
         <v>2732871.2220000001</v>
       </c>
+      <c r="F27" t="s">
+        <v>852</v>
+      </c>
       <c r="G27" t="s">
         <v>155</v>
       </c>
@@ -7109,6 +8195,9 @@
       <c r="E28">
         <v>2742563.9139999999</v>
       </c>
+      <c r="F28" t="s">
+        <v>853</v>
+      </c>
       <c r="G28" t="s">
         <v>155</v>
       </c>
@@ -7229,6 +8318,9 @@
       <c r="E29">
         <v>2743740.5150000001</v>
       </c>
+      <c r="F29" t="s">
+        <v>854</v>
+      </c>
       <c r="G29" t="s">
         <v>155</v>
       </c>
@@ -7349,6 +8441,9 @@
       <c r="E30">
         <v>2744771.037</v>
       </c>
+      <c r="F30" t="s">
+        <v>855</v>
+      </c>
       <c r="G30" t="s">
         <v>155</v>
       </c>
@@ -7469,6 +8564,9 @@
       <c r="E31">
         <v>2741023.1179999998</v>
       </c>
+      <c r="F31" t="s">
+        <v>856</v>
+      </c>
       <c r="G31" t="s">
         <v>155</v>
       </c>
@@ -7589,6 +8687,9 @@
       <c r="E32">
         <v>2740175.0929999999</v>
       </c>
+      <c r="F32" t="s">
+        <v>857</v>
+      </c>
       <c r="G32" t="s">
         <v>155</v>
       </c>
@@ -7709,6 +8810,9 @@
       <c r="E33">
         <v>2738940.01</v>
       </c>
+      <c r="F33" t="s">
+        <v>858</v>
+      </c>
       <c r="G33" t="s">
         <v>155</v>
       </c>
@@ -7827,6 +8931,9 @@
       <c r="E34">
         <v>2732463.7</v>
       </c>
+      <c r="F34" t="s">
+        <v>859</v>
+      </c>
       <c r="G34" t="s">
         <v>155</v>
       </c>
@@ -7945,6 +9052,9 @@
       <c r="E35">
         <v>2733148.24</v>
       </c>
+      <c r="F35" t="s">
+        <v>860</v>
+      </c>
       <c r="G35" t="s">
         <v>155</v>
       </c>
@@ -8063,6 +9173,9 @@
       <c r="E36">
         <v>2736088.4619999998</v>
       </c>
+      <c r="F36" t="s">
+        <v>861</v>
+      </c>
       <c r="G36" t="s">
         <v>155</v>
       </c>
@@ -8181,6 +9294,9 @@
       <c r="E37">
         <v>2730106.3309999998</v>
       </c>
+      <c r="F37" t="s">
+        <v>862</v>
+      </c>
       <c r="G37" t="s">
         <v>155</v>
       </c>
@@ -8299,6 +9415,9 @@
       <c r="E38">
         <v>2730385.0660000001</v>
       </c>
+      <c r="F38" t="s">
+        <v>863</v>
+      </c>
       <c r="G38" t="s">
         <v>155</v>
       </c>
@@ -8417,6 +9536,9 @@
       <c r="E39">
         <v>2728165.57</v>
       </c>
+      <c r="F39" t="s">
+        <v>864</v>
+      </c>
       <c r="G39" t="s">
         <v>155</v>
       </c>
@@ -8535,6 +9657,9 @@
       <c r="E40">
         <v>2727665.2719999999</v>
       </c>
+      <c r="F40" t="s">
+        <v>865</v>
+      </c>
       <c r="G40" t="s">
         <v>155</v>
       </c>
@@ -8653,6 +9778,9 @@
       <c r="E41">
         <v>2723520.1060000001</v>
       </c>
+      <c r="F41" t="s">
+        <v>866</v>
+      </c>
       <c r="G41" t="s">
         <v>155</v>
       </c>
@@ -8771,6 +9899,9 @@
       <c r="E42">
         <v>2719282.0150000001</v>
       </c>
+      <c r="F42" t="s">
+        <v>867</v>
+      </c>
       <c r="G42" t="s">
         <v>155</v>
       </c>
@@ -8889,6 +10020,9 @@
       <c r="E43">
         <v>2724828.92</v>
       </c>
+      <c r="F43" t="s">
+        <v>868</v>
+      </c>
       <c r="G43" t="s">
         <v>155</v>
       </c>
@@ -9007,6 +10141,9 @@
       <c r="E44">
         <v>2718697.4959999998</v>
       </c>
+      <c r="F44" t="s">
+        <v>869</v>
+      </c>
       <c r="G44" t="s">
         <v>155</v>
       </c>
@@ -9125,6 +10262,9 @@
       <c r="E45">
         <v>2726800.01</v>
       </c>
+      <c r="F45" t="s">
+        <v>870</v>
+      </c>
       <c r="G45" t="s">
         <v>155</v>
       </c>
@@ -9243,6 +10383,9 @@
       <c r="E46">
         <v>2721513.64</v>
       </c>
+      <c r="F46" t="s">
+        <v>871</v>
+      </c>
       <c r="G46" t="s">
         <v>182</v>
       </c>
@@ -9361,6 +10504,9 @@
       <c r="E47">
         <v>2724723.66</v>
       </c>
+      <c r="F47" t="s">
+        <v>872</v>
+      </c>
       <c r="G47" t="s">
         <v>182</v>
       </c>
@@ -9479,6 +10625,9 @@
       <c r="E48">
         <v>2725370.98</v>
       </c>
+      <c r="F48" t="s">
+        <v>873</v>
+      </c>
       <c r="G48" t="s">
         <v>182</v>
       </c>
@@ -9597,6 +10746,9 @@
       <c r="E49">
         <v>2721539.14</v>
       </c>
+      <c r="F49" t="s">
+        <v>874</v>
+      </c>
       <c r="G49" t="s">
         <v>182</v>
       </c>
@@ -9715,6 +10867,9 @@
       <c r="E50">
         <v>2715139.4010000001</v>
       </c>
+      <c r="F50" t="s">
+        <v>875</v>
+      </c>
       <c r="G50" t="s">
         <v>182</v>
       </c>
@@ -9833,6 +10988,9 @@
       <c r="E51">
         <v>2714840.41</v>
       </c>
+      <c r="F51" t="s">
+        <v>876</v>
+      </c>
       <c r="G51" t="s">
         <v>182</v>
       </c>
@@ -9951,6 +11109,9 @@
       <c r="E52">
         <v>2718559.98</v>
       </c>
+      <c r="F52" t="s">
+        <v>877</v>
+      </c>
       <c r="G52" t="s">
         <v>182</v>
       </c>
@@ -10069,6 +11230,9 @@
       <c r="E53">
         <v>2701696.9</v>
       </c>
+      <c r="F53" t="s">
+        <v>878</v>
+      </c>
       <c r="G53" t="s">
         <v>182</v>
       </c>
@@ -10187,6 +11351,9 @@
       <c r="E54">
         <v>2698687.83</v>
       </c>
+      <c r="F54" t="s">
+        <v>879</v>
+      </c>
       <c r="G54" t="s">
         <v>182</v>
       </c>
@@ -10305,6 +11472,9 @@
       <c r="E55">
         <v>2703750.97</v>
       </c>
+      <c r="F55" t="s">
+        <v>880</v>
+      </c>
       <c r="G55" t="s">
         <v>182</v>
       </c>
@@ -10423,6 +11593,9 @@
       <c r="E56">
         <v>2705993.59</v>
       </c>
+      <c r="F56" t="s">
+        <v>881</v>
+      </c>
       <c r="G56" t="s">
         <v>182</v>
       </c>
@@ -10541,6 +11714,9 @@
       <c r="E57">
         <v>2694892.89</v>
       </c>
+      <c r="F57" t="s">
+        <v>882</v>
+      </c>
       <c r="G57" t="s">
         <v>182</v>
       </c>
@@ -10659,6 +11835,9 @@
       <c r="E58">
         <v>2698009.48</v>
       </c>
+      <c r="F58" t="s">
+        <v>883</v>
+      </c>
       <c r="G58" t="s">
         <v>182</v>
       </c>
@@ -10760,6 +11939,9 @@
       <c r="E59">
         <v>2693553.38</v>
       </c>
+      <c r="F59" t="s">
+        <v>884</v>
+      </c>
       <c r="G59" t="s">
         <v>182</v>
       </c>
@@ -10861,6 +12043,9 @@
       <c r="E60">
         <v>2673963.5950000002</v>
       </c>
+      <c r="F60" t="s">
+        <v>885</v>
+      </c>
       <c r="G60" t="s">
         <v>90</v>
       </c>
@@ -10962,6 +12147,9 @@
       <c r="E61">
         <v>2675346.7680000002</v>
       </c>
+      <c r="F61" t="s">
+        <v>886</v>
+      </c>
       <c r="G61" t="s">
         <v>90</v>
       </c>
@@ -11063,6 +12251,9 @@
       <c r="E62">
         <v>2691340.5929999999</v>
       </c>
+      <c r="F62" t="s">
+        <v>887</v>
+      </c>
       <c r="G62" t="s">
         <v>90</v>
       </c>
@@ -11164,6 +12355,9 @@
       <c r="E63">
         <v>2681230.0099999998</v>
       </c>
+      <c r="F63" t="s">
+        <v>888</v>
+      </c>
       <c r="G63" t="s">
         <v>90</v>
       </c>
@@ -11265,6 +12459,9 @@
       <c r="E64">
         <v>2690192.0639999998</v>
       </c>
+      <c r="F64" t="s">
+        <v>889</v>
+      </c>
       <c r="G64" t="s">
         <v>90</v>
       </c>
@@ -11366,6 +12563,9 @@
       <c r="E65">
         <v>2674631.5460000001</v>
       </c>
+      <c r="F65" t="s">
+        <v>890</v>
+      </c>
       <c r="G65" t="s">
         <v>90</v>
       </c>
@@ -11467,6 +12667,9 @@
       <c r="E66">
         <v>2687297.1120000002</v>
       </c>
+      <c r="F66" t="s">
+        <v>891</v>
+      </c>
       <c r="G66" t="s">
         <v>90</v>
       </c>
@@ -11568,6 +12771,9 @@
       <c r="E67">
         <v>2683391.2799999998</v>
       </c>
+      <c r="F67" t="s">
+        <v>892</v>
+      </c>
       <c r="G67" t="s">
         <v>90</v>
       </c>
@@ -11669,6 +12875,9 @@
       <c r="E68">
         <v>2643833.81</v>
       </c>
+      <c r="F68" t="s">
+        <v>893</v>
+      </c>
       <c r="G68" t="s">
         <v>198</v>
       </c>
@@ -11770,6 +12979,9 @@
       <c r="E69">
         <v>2642893.06</v>
       </c>
+      <c r="F69" t="s">
+        <v>894</v>
+      </c>
       <c r="G69" t="s">
         <v>198</v>
       </c>
@@ -11871,6 +13083,9 @@
       <c r="E70">
         <v>2642944.7000000002</v>
       </c>
+      <c r="F70" t="s">
+        <v>895</v>
+      </c>
       <c r="G70" t="s">
         <v>198</v>
       </c>
@@ -11972,6 +13187,9 @@
       <c r="E71">
         <v>2644414.63</v>
       </c>
+      <c r="F71" t="s">
+        <v>896</v>
+      </c>
       <c r="G71" t="s">
         <v>198</v>
       </c>
@@ -12073,6 +13291,9 @@
       <c r="E72">
         <v>2638250.41</v>
       </c>
+      <c r="F72" t="s">
+        <v>897</v>
+      </c>
       <c r="G72" t="s">
         <v>198</v>
       </c>
@@ -12174,6 +13395,9 @@
       <c r="E73">
         <v>2646076.77</v>
       </c>
+      <c r="F73" t="s">
+        <v>898</v>
+      </c>
       <c r="G73" t="s">
         <v>198</v>
       </c>
@@ -12275,6 +13499,9 @@
       <c r="E74">
         <v>2621578.2799999998</v>
       </c>
+      <c r="F74" t="s">
+        <v>899</v>
+      </c>
       <c r="G74" t="s">
         <v>198</v>
       </c>
@@ -12376,6 +13603,9 @@
       <c r="E75">
         <v>2613869.6800000002</v>
       </c>
+      <c r="F75" t="s">
+        <v>900</v>
+      </c>
       <c r="G75" t="s">
         <v>198</v>
       </c>
@@ -12477,6 +13707,9 @@
       <c r="E76">
         <v>2610048.64</v>
       </c>
+      <c r="F76" t="s">
+        <v>901</v>
+      </c>
       <c r="G76" t="s">
         <v>198</v>
       </c>
@@ -12578,6 +13811,9 @@
       <c r="E77">
         <v>2621128.1</v>
       </c>
+      <c r="F77" t="s">
+        <v>902</v>
+      </c>
       <c r="G77" t="s">
         <v>198</v>
       </c>
@@ -12679,6 +13915,9 @@
       <c r="E78">
         <v>2630634.77</v>
       </c>
+      <c r="F78" t="s">
+        <v>903</v>
+      </c>
       <c r="G78" t="s">
         <v>198</v>
       </c>
@@ -12780,6 +14019,9 @@
       <c r="E79">
         <v>2632232.17</v>
       </c>
+      <c r="F79" t="s">
+        <v>904</v>
+      </c>
       <c r="G79" t="s">
         <v>198</v>
       </c>
@@ -12881,6 +14123,9 @@
       <c r="E80">
         <v>2606547.4780000001</v>
       </c>
+      <c r="F80" t="s">
+        <v>905</v>
+      </c>
       <c r="G80" t="s">
         <v>198</v>
       </c>
@@ -12982,6 +14227,9 @@
       <c r="E81">
         <v>2635233.87</v>
       </c>
+      <c r="F81" t="s">
+        <v>906</v>
+      </c>
       <c r="G81" t="s">
         <v>198</v>
       </c>
@@ -13083,6 +14331,9 @@
       <c r="E82">
         <v>2606678.65</v>
       </c>
+      <c r="F82" t="s">
+        <v>907</v>
+      </c>
       <c r="G82" t="s">
         <v>198</v>
       </c>
@@ -13184,6 +14435,9 @@
       <c r="E83">
         <v>2615147.11</v>
       </c>
+      <c r="F83" t="s">
+        <v>908</v>
+      </c>
       <c r="G83" t="s">
         <v>198</v>
       </c>
@@ -13285,6 +14539,9 @@
       <c r="E84">
         <v>2612444.21</v>
       </c>
+      <c r="F84" t="s">
+        <v>909</v>
+      </c>
       <c r="G84" t="s">
         <v>198</v>
       </c>
@@ -13386,6 +14643,9 @@
       <c r="E85">
         <v>2631294.2000000002</v>
       </c>
+      <c r="F85" t="s">
+        <v>910</v>
+      </c>
       <c r="G85" t="s">
         <v>198</v>
       </c>
@@ -13487,6 +14747,9 @@
       <c r="E86">
         <v>2618514.94</v>
       </c>
+      <c r="F86" t="s">
+        <v>911</v>
+      </c>
       <c r="G86" t="s">
         <v>198</v>
       </c>
@@ -13588,6 +14851,9 @@
       <c r="E87">
         <v>2657296.75</v>
       </c>
+      <c r="F87" t="s">
+        <v>912</v>
+      </c>
       <c r="G87" t="s">
         <v>198</v>
       </c>
@@ -13689,6 +14955,9 @@
       <c r="E88">
         <v>2651457.44</v>
       </c>
+      <c r="F88" t="s">
+        <v>913</v>
+      </c>
       <c r="G88" t="s">
         <v>198</v>
       </c>
@@ -13790,6 +15059,9 @@
       <c r="E89">
         <v>2645799.36</v>
       </c>
+      <c r="F89" t="s">
+        <v>914</v>
+      </c>
       <c r="G89" t="s">
         <v>198</v>
       </c>
@@ -13891,6 +15163,9 @@
       <c r="E90">
         <v>2664594.858</v>
       </c>
+      <c r="F90" t="s">
+        <v>915</v>
+      </c>
       <c r="G90" t="s">
         <v>198</v>
       </c>
@@ -13992,6 +15267,9 @@
       <c r="E91">
         <v>2662007.25</v>
       </c>
+      <c r="F91" t="s">
+        <v>916</v>
+      </c>
       <c r="G91" t="s">
         <v>198</v>
       </c>
@@ -14093,6 +15371,9 @@
       <c r="E92">
         <v>2671459.875</v>
       </c>
+      <c r="F92" t="s">
+        <v>917</v>
+      </c>
       <c r="G92" t="s">
         <v>198</v>
       </c>
@@ -14194,6 +15475,9 @@
       <c r="E93">
         <v>2655059.21</v>
       </c>
+      <c r="F93" t="s">
+        <v>918</v>
+      </c>
       <c r="G93" t="s">
         <v>198</v>
       </c>
@@ -14295,6 +15579,9 @@
       <c r="E94">
         <v>2644463.29</v>
       </c>
+      <c r="F94" t="s">
+        <v>919</v>
+      </c>
       <c r="G94" t="s">
         <v>198</v>
       </c>
@@ -14396,6 +15683,9 @@
       <c r="E95">
         <v>2658920.06</v>
       </c>
+      <c r="F95" t="s">
+        <v>920</v>
+      </c>
       <c r="G95" t="s">
         <v>198</v>
       </c>
@@ -14497,6 +15787,9 @@
       <c r="E96">
         <v>2668750.35</v>
       </c>
+      <c r="F96" t="s">
+        <v>921</v>
+      </c>
       <c r="G96" t="s">
         <v>198</v>
       </c>
@@ -14598,6 +15891,9 @@
       <c r="E97">
         <v>2649141.34</v>
       </c>
+      <c r="F97" t="s">
+        <v>922</v>
+      </c>
       <c r="G97" t="s">
         <v>198</v>
       </c>
@@ -14699,6 +15995,9 @@
       <c r="E98">
         <v>2661627.7200000002</v>
       </c>
+      <c r="F98" t="s">
+        <v>923</v>
+      </c>
       <c r="G98" t="s">
         <v>198</v>
       </c>
@@ -14800,6 +16099,9 @@
       <c r="E99">
         <v>2658137.861</v>
       </c>
+      <c r="F99" t="s">
+        <v>924</v>
+      </c>
       <c r="G99" t="s">
         <v>198</v>
       </c>
@@ -14901,6 +16203,9 @@
       <c r="E100">
         <v>2672721.86</v>
       </c>
+      <c r="F100" t="s">
+        <v>925</v>
+      </c>
       <c r="G100" t="s">
         <v>198</v>
       </c>
@@ -15002,6 +16307,9 @@
       <c r="E101">
         <v>2659965.4730000002</v>
       </c>
+      <c r="F101" t="s">
+        <v>926</v>
+      </c>
       <c r="G101" t="s">
         <v>198</v>
       </c>
@@ -15103,6 +16411,9 @@
       <c r="E102">
         <v>2594491.4900000002</v>
       </c>
+      <c r="F102" t="s">
+        <v>927</v>
+      </c>
       <c r="G102" t="s">
         <v>257</v>
       </c>
@@ -15204,6 +16515,9 @@
       <c r="E103">
         <v>2598840.66</v>
       </c>
+      <c r="F103" t="s">
+        <v>928</v>
+      </c>
       <c r="G103" t="s">
         <v>257</v>
       </c>
@@ -15305,6 +16619,9 @@
       <c r="E104">
         <v>2602965.85</v>
       </c>
+      <c r="F104" t="s">
+        <v>929</v>
+      </c>
       <c r="G104" t="s">
         <v>257</v>
       </c>
@@ -15406,6 +16723,9 @@
       <c r="E105">
         <v>2586748.9700000002</v>
       </c>
+      <c r="F105" t="s">
+        <v>930</v>
+      </c>
       <c r="G105" t="s">
         <v>257</v>
       </c>
@@ -15507,6 +16827,9 @@
       <c r="E106">
         <v>2581717.5699999998</v>
       </c>
+      <c r="F106" t="s">
+        <v>931</v>
+      </c>
       <c r="G106" t="s">
         <v>257</v>
       </c>
@@ -15608,6 +16931,9 @@
       <c r="E107">
         <v>2596198.2799999998</v>
       </c>
+      <c r="F107" t="s">
+        <v>932</v>
+      </c>
       <c r="G107" t="s">
         <v>257</v>
       </c>
@@ -15709,6 +17035,9 @@
       <c r="E108">
         <v>2601490.84</v>
       </c>
+      <c r="F108" t="s">
+        <v>933</v>
+      </c>
       <c r="G108" t="s">
         <v>257</v>
       </c>
@@ -15810,6 +17139,9 @@
       <c r="E109">
         <v>2577581.19</v>
       </c>
+      <c r="F109" t="s">
+        <v>934</v>
+      </c>
       <c r="G109" t="s">
         <v>257</v>
       </c>
@@ -15911,6 +17243,9 @@
       <c r="E110">
         <v>2574910.94</v>
       </c>
+      <c r="F110" t="s">
+        <v>935</v>
+      </c>
       <c r="G110" t="s">
         <v>108</v>
       </c>
@@ -16012,6 +17347,9 @@
       <c r="E111">
         <v>2531690.0079999999</v>
       </c>
+      <c r="F111" t="s">
+        <v>936</v>
+      </c>
       <c r="G111" t="s">
         <v>108</v>
       </c>
@@ -16113,6 +17451,9 @@
       <c r="E112">
         <v>2534391.1680000001</v>
       </c>
+      <c r="F112" t="s">
+        <v>937</v>
+      </c>
       <c r="G112" t="s">
         <v>108</v>
       </c>
@@ -16214,6 +17555,9 @@
       <c r="E113">
         <v>2562072.1660000002</v>
       </c>
+      <c r="F113" t="s">
+        <v>938</v>
+      </c>
       <c r="G113" t="s">
         <v>108</v>
       </c>
@@ -16315,6 +17659,9 @@
       <c r="E114">
         <v>2555960.0090000001</v>
       </c>
+      <c r="F114" t="s">
+        <v>939</v>
+      </c>
       <c r="G114" t="s">
         <v>108</v>
       </c>
@@ -16416,6 +17763,9 @@
       <c r="E115">
         <v>2558547.3050000002</v>
       </c>
+      <c r="F115" t="s">
+        <v>940</v>
+      </c>
       <c r="G115" t="s">
         <v>108</v>
       </c>
@@ -16517,6 +17867,9 @@
       <c r="E116">
         <v>2548260.0090000001</v>
       </c>
+      <c r="F116" t="s">
+        <v>941</v>
+      </c>
       <c r="G116" t="s">
         <v>108</v>
       </c>
@@ -16618,6 +17971,9 @@
       <c r="E117">
         <v>2572284.63</v>
       </c>
+      <c r="F117" t="s">
+        <v>942</v>
+      </c>
       <c r="G117" t="s">
         <v>108</v>
       </c>
@@ -16719,6 +18075,9 @@
       <c r="E118">
         <v>2571696.8659999999</v>
       </c>
+      <c r="F118" t="s">
+        <v>943</v>
+      </c>
       <c r="G118" t="s">
         <v>108</v>
       </c>
@@ -16820,6 +18179,9 @@
       <c r="E119">
         <v>2435822.61</v>
       </c>
+      <c r="F119" t="s">
+        <v>944</v>
+      </c>
       <c r="G119" t="s">
         <v>274</v>
       </c>
@@ -16921,6 +18283,9 @@
       <c r="E120">
         <v>2441929.38</v>
       </c>
+      <c r="F120" t="s">
+        <v>945</v>
+      </c>
       <c r="G120" t="s">
         <v>274</v>
       </c>
@@ -17022,6 +18387,9 @@
       <c r="E121">
         <v>2434197.1</v>
       </c>
+      <c r="F121" t="s">
+        <v>946</v>
+      </c>
       <c r="G121" t="s">
         <v>274</v>
       </c>
@@ -17123,6 +18491,9 @@
       <c r="E122">
         <v>2512755.33</v>
       </c>
+      <c r="F122" t="s">
+        <v>947</v>
+      </c>
       <c r="G122" t="s">
         <v>274</v>
       </c>
@@ -17224,6 +18595,9 @@
       <c r="E123">
         <v>2524076.29</v>
       </c>
+      <c r="F123" t="s">
+        <v>948</v>
+      </c>
       <c r="G123" t="s">
         <v>274</v>
       </c>
@@ -17325,6 +18699,9 @@
       <c r="E124">
         <v>2526420.7799999998</v>
       </c>
+      <c r="F124" t="s">
+        <v>949</v>
+      </c>
       <c r="G124" t="s">
         <v>274</v>
       </c>
@@ -17426,6 +18803,9 @@
       <c r="E125">
         <v>2518896.79</v>
       </c>
+      <c r="F125" t="s">
+        <v>950</v>
+      </c>
       <c r="G125" t="s">
         <v>274</v>
       </c>
@@ -17527,6 +18907,9 @@
       <c r="E126">
         <v>2505918.17</v>
       </c>
+      <c r="F126" t="s">
+        <v>951</v>
+      </c>
       <c r="G126" t="s">
         <v>274</v>
       </c>
@@ -17628,6 +19011,9 @@
       <c r="E127">
         <v>2511847.64</v>
       </c>
+      <c r="F127" t="s">
+        <v>952</v>
+      </c>
       <c r="G127" t="s">
         <v>274</v>
       </c>
@@ -17729,6 +19115,9 @@
       <c r="E128">
         <v>2516098.7599999998</v>
       </c>
+      <c r="F128" t="s">
+        <v>953</v>
+      </c>
       <c r="G128" t="s">
         <v>274</v>
       </c>
@@ -17830,6 +19219,9 @@
       <c r="E129">
         <v>2497643.79</v>
       </c>
+      <c r="F129" t="s">
+        <v>954</v>
+      </c>
       <c r="G129" t="s">
         <v>274</v>
       </c>
@@ -17931,6 +19323,9 @@
       <c r="E130">
         <v>2500664.77</v>
       </c>
+      <c r="F130" t="s">
+        <v>955</v>
+      </c>
       <c r="G130" t="s">
         <v>274</v>
       </c>
@@ -18032,6 +19427,9 @@
       <c r="E131">
         <v>2503000.0079999999</v>
       </c>
+      <c r="F131" t="s">
+        <v>956</v>
+      </c>
       <c r="G131" t="s">
         <v>274</v>
       </c>
@@ -18133,6 +19531,9 @@
       <c r="E132">
         <v>2492055.25</v>
       </c>
+      <c r="F132" t="s">
+        <v>957</v>
+      </c>
       <c r="G132" t="s">
         <v>274</v>
       </c>
@@ -18234,6 +19635,9 @@
       <c r="E133">
         <v>2484850.42</v>
       </c>
+      <c r="F133" t="s">
+        <v>958</v>
+      </c>
       <c r="G133" t="s">
         <v>274</v>
       </c>
@@ -18335,6 +19739,9 @@
       <c r="E134">
         <v>2488190.0079999999</v>
       </c>
+      <c r="F134" t="s">
+        <v>959</v>
+      </c>
       <c r="G134" t="s">
         <v>274</v>
       </c>
@@ -18436,6 +19843,9 @@
       <c r="E135">
         <v>2481924.7400000002</v>
       </c>
+      <c r="F135" t="s">
+        <v>960</v>
+      </c>
       <c r="G135" t="s">
         <v>274</v>
       </c>
@@ -18537,6 +19947,9 @@
       <c r="E136">
         <v>2492019.15</v>
       </c>
+      <c r="F136" t="s">
+        <v>961</v>
+      </c>
       <c r="G136" t="s">
         <v>274</v>
       </c>
@@ -18638,6 +20051,9 @@
       <c r="E137">
         <v>2474604.1</v>
       </c>
+      <c r="F137" t="s">
+        <v>962</v>
+      </c>
       <c r="G137" t="s">
         <v>274</v>
       </c>
@@ -18739,6 +20155,9 @@
       <c r="E138">
         <v>2480955.6800000002</v>
       </c>
+      <c r="F138" t="s">
+        <v>963</v>
+      </c>
       <c r="G138" t="s">
         <v>274</v>
       </c>
@@ -18840,6 +20259,9 @@
       <c r="E139">
         <v>2473579.2599999998</v>
       </c>
+      <c r="F139" t="s">
+        <v>964</v>
+      </c>
       <c r="G139" t="s">
         <v>274</v>
       </c>
@@ -18941,6 +20363,9 @@
       <c r="E140">
         <v>2455959.4500000002</v>
       </c>
+      <c r="F140" t="s">
+        <v>965</v>
+      </c>
       <c r="G140" t="s">
         <v>274</v>
       </c>
@@ -19042,6 +20467,9 @@
       <c r="E141">
         <v>2456093.4139999999</v>
       </c>
+      <c r="F141" t="s">
+        <v>966</v>
+      </c>
       <c r="G141" t="s">
         <v>274</v>
       </c>
@@ -19143,6 +20571,9 @@
       <c r="E142">
         <v>2466564.7400000002</v>
       </c>
+      <c r="F142" t="s">
+        <v>967</v>
+      </c>
       <c r="G142" t="s">
         <v>274</v>
       </c>
@@ -19244,6 +20675,9 @@
       <c r="E143">
         <v>2459560.0079999999</v>
       </c>
+      <c r="F143" t="s">
+        <v>968</v>
+      </c>
       <c r="G143" t="s">
         <v>274</v>
       </c>
@@ -19345,6 +20779,9 @@
       <c r="E144">
         <v>2447504.2999999998</v>
       </c>
+      <c r="F144" t="s">
+        <v>969</v>
+      </c>
       <c r="G144" t="s">
         <v>274</v>
       </c>
@@ -19446,6 +20883,9 @@
       <c r="E145">
         <v>2447379.65</v>
       </c>
+      <c r="F145" t="s">
+        <v>970</v>
+      </c>
       <c r="G145" t="s">
         <v>274</v>
       </c>
@@ -19547,6 +20987,9 @@
       <c r="E146">
         <v>2453123.33</v>
       </c>
+      <c r="F146" t="s">
+        <v>971</v>
+      </c>
       <c r="G146" t="s">
         <v>274</v>
       </c>
@@ -19648,6 +21091,9 @@
       <c r="E147">
         <v>2515980.0079999999</v>
       </c>
+      <c r="F147" t="s">
+        <v>972</v>
+      </c>
       <c r="G147" t="s">
         <v>274</v>
       </c>
@@ -19749,6 +21195,9 @@
       <c r="E148">
         <v>2510942.2000000002</v>
       </c>
+      <c r="F148" t="s">
+        <v>973</v>
+      </c>
       <c r="G148" t="s">
         <v>274</v>
       </c>
@@ -19850,6 +21299,9 @@
       <c r="E149">
         <v>2517195.5299999998</v>
       </c>
+      <c r="F149" t="s">
+        <v>974</v>
+      </c>
       <c r="G149" t="s">
         <v>337</v>
       </c>
@@ -19951,6 +21403,9 @@
       <c r="E150">
         <v>2517423.2119999998</v>
       </c>
+      <c r="F150" t="s">
+        <v>975</v>
+      </c>
       <c r="G150" t="s">
         <v>337</v>
       </c>
@@ -20052,6 +21507,9 @@
       <c r="E151">
         <v>2516286.7680000002</v>
       </c>
+      <c r="F151" t="s">
+        <v>976</v>
+      </c>
       <c r="G151" t="s">
         <v>337</v>
       </c>
@@ -20153,6 +21611,9 @@
       <c r="E152">
         <v>2518677.17</v>
       </c>
+      <c r="F152" t="s">
+        <v>977</v>
+      </c>
       <c r="G152" t="s">
         <v>337</v>
       </c>
@@ -20254,6 +21715,9 @@
       <c r="E153">
         <v>2517956.9640000002</v>
       </c>
+      <c r="F153" t="s">
+        <v>978</v>
+      </c>
       <c r="G153" t="s">
         <v>337</v>
       </c>
@@ -20355,6 +21819,9 @@
       <c r="E154">
         <v>2518172.7940000002</v>
       </c>
+      <c r="F154" t="s">
+        <v>979</v>
+      </c>
       <c r="G154" t="s">
         <v>337</v>
       </c>
@@ -20456,6 +21923,9 @@
       <c r="E155">
         <v>2515176.855</v>
       </c>
+      <c r="F155" t="s">
+        <v>980</v>
+      </c>
       <c r="G155" t="s">
         <v>337</v>
       </c>
@@ -20557,6 +22027,9 @@
       <c r="E156">
         <v>2516322.2069999999</v>
       </c>
+      <c r="F156" t="s">
+        <v>981</v>
+      </c>
       <c r="G156" t="s">
         <v>337</v>
       </c>
@@ -20658,6 +22131,9 @@
       <c r="E157">
         <v>2518309.7459999998</v>
       </c>
+      <c r="F157" t="s">
+        <v>982</v>
+      </c>
       <c r="G157" t="s">
         <v>337</v>
       </c>
@@ -20759,6 +22235,9 @@
       <c r="E158">
         <v>2514404.2110000001</v>
       </c>
+      <c r="F158" t="s">
+        <v>983</v>
+      </c>
       <c r="G158" t="s">
         <v>337</v>
       </c>
@@ -20860,6 +22339,9 @@
       <c r="E159">
         <v>2517209.2340000002</v>
       </c>
+      <c r="F159" t="s">
+        <v>984</v>
+      </c>
       <c r="G159" t="s">
         <v>337</v>
       </c>
@@ -20961,6 +22443,9 @@
       <c r="E160">
         <v>2519016.4559999998</v>
       </c>
+      <c r="F160" t="s">
+        <v>985</v>
+      </c>
       <c r="G160" t="s">
         <v>337</v>
       </c>
@@ -21062,6 +22547,9 @@
       <c r="E161">
         <v>2520131.7629999998</v>
       </c>
+      <c r="F161" t="s">
+        <v>986</v>
+      </c>
       <c r="G161" t="s">
         <v>337</v>
       </c>
@@ -21163,6 +22651,9 @@
       <c r="E162">
         <v>2522797.0010000002</v>
       </c>
+      <c r="F162" t="s">
+        <v>987</v>
+      </c>
       <c r="G162" t="s">
         <v>337</v>
       </c>
@@ -21264,6 +22755,9 @@
       <c r="E163">
         <v>2520918.89</v>
       </c>
+      <c r="F163" t="s">
+        <v>988</v>
+      </c>
       <c r="G163" t="s">
         <v>337</v>
       </c>
@@ -21365,6 +22859,9 @@
       <c r="E164">
         <v>2511696.0090000001</v>
       </c>
+      <c r="F164" t="s">
+        <v>989</v>
+      </c>
       <c r="G164" t="s">
         <v>337</v>
       </c>
@@ -21466,6 +22963,9 @@
       <c r="E165">
         <v>2512917.8569999998</v>
       </c>
+      <c r="F165" t="s">
+        <v>990</v>
+      </c>
       <c r="G165" t="s">
         <v>337</v>
       </c>
@@ -21567,6 +23067,9 @@
       <c r="E166">
         <v>2519350.6910000001</v>
       </c>
+      <c r="F166" t="s">
+        <v>991</v>
+      </c>
       <c r="G166" t="s">
         <v>337</v>
       </c>
@@ -21668,6 +23171,9 @@
       <c r="E167">
         <v>2521727.2080000001</v>
       </c>
+      <c r="F167" t="s">
+        <v>992</v>
+      </c>
       <c r="G167" t="s">
         <v>337</v>
       </c>
@@ -21769,6 +23275,9 @@
       <c r="E168">
         <v>2518269.9640000002</v>
       </c>
+      <c r="F168" t="s">
+        <v>993</v>
+      </c>
       <c r="G168" t="s">
         <v>337</v>
       </c>
@@ -21870,6 +23379,9 @@
       <c r="E169">
         <v>2522930.1940000001</v>
       </c>
+      <c r="F169" t="s">
+        <v>994</v>
+      </c>
       <c r="G169" t="s">
         <v>337</v>
       </c>
@@ -21971,6 +23483,9 @@
       <c r="E170">
         <v>2510805.7829999998</v>
       </c>
+      <c r="F170" t="s">
+        <v>995</v>
+      </c>
       <c r="G170" t="s">
         <v>337</v>
       </c>
@@ -22072,6 +23587,9 @@
       <c r="E171">
         <v>2519588.051</v>
       </c>
+      <c r="F171" t="s">
+        <v>996</v>
+      </c>
       <c r="G171" t="s">
         <v>337</v>
       </c>
@@ -22173,6 +23691,9 @@
       <c r="E172">
         <v>2528802.1</v>
       </c>
+      <c r="F172" t="s">
+        <v>997</v>
+      </c>
       <c r="G172" t="s">
         <v>337</v>
       </c>
@@ -22274,6 +23795,9 @@
       <c r="E173">
         <v>2526080.5780000002</v>
       </c>
+      <c r="F173" t="s">
+        <v>998</v>
+      </c>
       <c r="G173" t="s">
         <v>337</v>
       </c>
@@ -22375,6 +23899,9 @@
       <c r="E174">
         <v>2527746.1490000002</v>
       </c>
+      <c r="F174" t="s">
+        <v>999</v>
+      </c>
       <c r="G174" t="s">
         <v>337</v>
       </c>
@@ -22476,6 +24003,9 @@
       <c r="E175">
         <v>2518253.8319999999</v>
       </c>
+      <c r="F175" t="s">
+        <v>1000</v>
+      </c>
       <c r="G175" t="s">
         <v>337</v>
       </c>
@@ -22577,6 +24107,9 @@
       <c r="E176">
         <v>2521120.6490000002</v>
       </c>
+      <c r="F176" t="s">
+        <v>1001</v>
+      </c>
       <c r="G176" t="s">
         <v>337</v>
       </c>
@@ -22678,6 +24211,9 @@
       <c r="E177">
         <v>2501430.0079999999</v>
       </c>
+      <c r="F177" t="s">
+        <v>1002</v>
+      </c>
       <c r="G177" t="s">
         <v>337</v>
       </c>
@@ -22779,6 +24315,9 @@
       <c r="E178">
         <v>2498635.7280000001</v>
       </c>
+      <c r="F178" t="s">
+        <v>1003</v>
+      </c>
       <c r="G178" t="s">
         <v>337</v>
       </c>
@@ -22880,6 +24419,9 @@
       <c r="E179">
         <v>2508008.9330000002</v>
       </c>
+      <c r="F179" t="s">
+        <v>1004</v>
+      </c>
       <c r="G179" t="s">
         <v>337</v>
       </c>
@@ -22981,6 +24523,9 @@
       <c r="E180">
         <v>2509700.906</v>
       </c>
+      <c r="F180" t="s">
+        <v>1005</v>
+      </c>
       <c r="G180" t="s">
         <v>337</v>
       </c>
@@ -23082,6 +24627,9 @@
       <c r="E181">
         <v>2484756.568</v>
       </c>
+      <c r="F181" t="s">
+        <v>1006</v>
+      </c>
       <c r="G181" t="s">
         <v>337</v>
       </c>
@@ -23183,6 +24731,9 @@
       <c r="E182">
         <v>2471191.659</v>
       </c>
+      <c r="F182" t="s">
+        <v>1007</v>
+      </c>
       <c r="G182" t="s">
         <v>337</v>
       </c>
@@ -23284,6 +24835,9 @@
       <c r="E183">
         <v>2473993.017</v>
       </c>
+      <c r="F183" t="s">
+        <v>1008</v>
+      </c>
       <c r="G183" t="s">
         <v>337</v>
       </c>
@@ -23385,6 +24939,9 @@
       <c r="E184">
         <v>2475993.1150000002</v>
       </c>
+      <c r="F184" t="s">
+        <v>1009</v>
+      </c>
       <c r="G184" t="s">
         <v>337</v>
       </c>
@@ -23486,6 +25043,9 @@
       <c r="E185">
         <v>2534256.4879999999</v>
       </c>
+      <c r="F185" t="s">
+        <v>1010</v>
+      </c>
       <c r="G185" t="s">
         <v>337</v>
       </c>
@@ -23587,6 +25147,9 @@
       <c r="E186">
         <v>2533683.9649999999</v>
       </c>
+      <c r="F186" t="s">
+        <v>1011</v>
+      </c>
       <c r="G186" t="s">
         <v>337</v>
       </c>
@@ -23688,6 +25251,9 @@
       <c r="E187">
         <v>2536938.4160000002</v>
       </c>
+      <c r="F187" t="s">
+        <v>1012</v>
+      </c>
       <c r="G187" t="s">
         <v>337</v>
       </c>
@@ -23789,6 +25355,9 @@
       <c r="E188">
         <v>2541971.5720000002</v>
       </c>
+      <c r="F188" t="s">
+        <v>1013</v>
+      </c>
       <c r="G188" t="s">
         <v>337</v>
       </c>
@@ -23890,6 +25459,9 @@
       <c r="E189">
         <v>2539623.5649999999</v>
       </c>
+      <c r="F189" t="s">
+        <v>1014</v>
+      </c>
       <c r="G189" t="s">
         <v>337</v>
       </c>
@@ -23991,6 +25563,9 @@
       <c r="E190">
         <v>2549897.5690000001</v>
       </c>
+      <c r="F190" t="s">
+        <v>1015</v>
+      </c>
       <c r="G190" t="s">
         <v>337</v>
       </c>
@@ -24092,6 +25667,9 @@
       <c r="E191">
         <v>2545330.0090000001</v>
       </c>
+      <c r="F191" t="s">
+        <v>1016</v>
+      </c>
       <c r="G191" t="s">
         <v>337</v>
       </c>
@@ -24193,6 +25771,9 @@
       <c r="E192">
         <v>2552482.0669999998</v>
       </c>
+      <c r="F192" t="s">
+        <v>1017</v>
+      </c>
       <c r="G192" t="s">
         <v>337</v>
       </c>
@@ -24294,6 +25875,9 @@
       <c r="E193">
         <v>2544970.0090000001</v>
       </c>
+      <c r="F193" t="s">
+        <v>1018</v>
+      </c>
       <c r="G193" t="s">
         <v>337</v>
       </c>
@@ -24395,6 +25979,9 @@
       <c r="E194">
         <v>2558148.7790000001</v>
       </c>
+      <c r="F194" t="s">
+        <v>1019</v>
+      </c>
       <c r="G194" t="s">
         <v>337</v>
       </c>
@@ -24496,6 +26083,9 @@
       <c r="E195">
         <v>2558203.929</v>
       </c>
+      <c r="F195" t="s">
+        <v>1020</v>
+      </c>
       <c r="G195" t="s">
         <v>337</v>
       </c>
@@ -24597,6 +26187,9 @@
       <c r="E196">
         <v>2554850.0090000001</v>
       </c>
+      <c r="F196" t="s">
+        <v>1021</v>
+      </c>
       <c r="G196" t="s">
         <v>337</v>
       </c>
@@ -24698,6 +26291,9 @@
       <c r="E197">
         <v>2539490.7930000001</v>
       </c>
+      <c r="F197" t="s">
+        <v>1022</v>
+      </c>
       <c r="G197" t="s">
         <v>337</v>
       </c>
@@ -24799,6 +26395,9 @@
       <c r="E198">
         <v>2530786.7119999998</v>
       </c>
+      <c r="F198" t="s">
+        <v>1023</v>
+      </c>
       <c r="G198" t="s">
         <v>337</v>
       </c>
@@ -24900,6 +26499,9 @@
       <c r="E199">
         <v>2544135.9309999999</v>
       </c>
+      <c r="F199" t="s">
+        <v>1024</v>
+      </c>
       <c r="G199" t="s">
         <v>337</v>
       </c>
@@ -25001,6 +26603,9 @@
       <c r="E200">
         <v>2548712.6529999999</v>
       </c>
+      <c r="F200" t="s">
+        <v>1025</v>
+      </c>
       <c r="G200" t="s">
         <v>337</v>
       </c>
@@ -25102,6 +26707,9 @@
       <c r="E201">
         <v>2555608.5520000001</v>
       </c>
+      <c r="F201" t="s">
+        <v>1026</v>
+      </c>
       <c r="G201" t="s">
         <v>337</v>
       </c>
@@ -25203,6 +26811,9 @@
       <c r="E202">
         <v>2555652.8319999999</v>
       </c>
+      <c r="F202" t="s">
+        <v>1027</v>
+      </c>
       <c r="G202" t="s">
         <v>337</v>
       </c>
@@ -25304,6 +26915,9 @@
       <c r="E203">
         <v>2547295.736</v>
       </c>
+      <c r="F203" t="s">
+        <v>1028</v>
+      </c>
       <c r="G203" t="s">
         <v>337</v>
       </c>
@@ -25405,6 +27019,9 @@
       <c r="E204">
         <v>2557660.0090000001</v>
       </c>
+      <c r="F204" t="s">
+        <v>1029</v>
+      </c>
       <c r="G204" t="s">
         <v>337</v>
       </c>
@@ -25506,6 +27123,9 @@
       <c r="E205">
         <v>2561711.0970000001</v>
       </c>
+      <c r="F205" t="s">
+        <v>1030</v>
+      </c>
       <c r="G205" t="s">
         <v>337</v>
       </c>
@@ -25607,6 +27227,9 @@
       <c r="E206">
         <v>2578254.625</v>
       </c>
+      <c r="F206" t="s">
+        <v>1031</v>
+      </c>
       <c r="G206" t="s">
         <v>337</v>
       </c>
@@ -25708,6 +27331,9 @@
       <c r="E207">
         <v>2569162.037</v>
       </c>
+      <c r="F207" t="s">
+        <v>1032</v>
+      </c>
       <c r="G207" t="s">
         <v>337</v>
       </c>
@@ -25809,6 +27435,9 @@
       <c r="E208">
         <v>2575984.2859999998</v>
       </c>
+      <c r="F208" t="s">
+        <v>1033</v>
+      </c>
       <c r="G208" t="s">
         <v>337</v>
       </c>
@@ -25910,6 +27539,9 @@
       <c r="E209">
         <v>2582159.392</v>
       </c>
+      <c r="F209" t="s">
+        <v>1034</v>
+      </c>
       <c r="G209" t="s">
         <v>337</v>
       </c>
@@ -26011,6 +27643,9 @@
       <c r="E210">
         <v>2590386.3760000002</v>
       </c>
+      <c r="F210" t="s">
+        <v>1035</v>
+      </c>
       <c r="G210" t="s">
         <v>337</v>
       </c>
@@ -26112,6 +27747,9 @@
       <c r="E211">
         <v>2499451.4500000002</v>
       </c>
+      <c r="F211" t="s">
+        <v>1036</v>
+      </c>
       <c r="G211" t="s">
         <v>337</v>
       </c>
@@ -26213,6 +27851,9 @@
       <c r="E212">
         <v>2500490.773</v>
       </c>
+      <c r="F212" t="s">
+        <v>1037</v>
+      </c>
       <c r="G212" t="s">
         <v>337</v>
       </c>
@@ -26314,6 +27955,9 @@
       <c r="E213">
         <v>2503496.3709999998</v>
       </c>
+      <c r="F213" t="s">
+        <v>1038</v>
+      </c>
       <c r="G213" t="s">
         <v>337</v>
       </c>
@@ -26415,6 +28059,9 @@
       <c r="E214">
         <v>2492506.997</v>
       </c>
+      <c r="F214" t="s">
+        <v>1039</v>
+      </c>
       <c r="G214" t="s">
         <v>337</v>
       </c>
@@ -26516,6 +28163,9 @@
       <c r="E215">
         <v>2466147.4389999998</v>
       </c>
+      <c r="F215" t="s">
+        <v>1040</v>
+      </c>
       <c r="G215" t="s">
         <v>337</v>
       </c>
@@ -26617,6 +28267,9 @@
       <c r="E216">
         <v>2483780.0079999999</v>
       </c>
+      <c r="F216" t="s">
+        <v>1041</v>
+      </c>
       <c r="G216" t="s">
         <v>337</v>
       </c>
@@ -26718,6 +28371,9 @@
       <c r="E217">
         <v>2486442.71</v>
       </c>
+      <c r="F217" t="s">
+        <v>1042</v>
+      </c>
       <c r="G217" t="s">
         <v>337</v>
       </c>
@@ -26819,6 +28475,9 @@
       <c r="E218">
         <v>2436640.557</v>
       </c>
+      <c r="F218" t="s">
+        <v>1043</v>
+      </c>
       <c r="G218" t="s">
         <v>337</v>
       </c>
@@ -26920,6 +28579,9 @@
       <c r="E219">
         <v>2438640.0079999999</v>
       </c>
+      <c r="F219" t="s">
+        <v>1044</v>
+      </c>
       <c r="G219" t="s">
         <v>337</v>
       </c>
@@ -27021,6 +28683,9 @@
       <c r="E220">
         <v>2439959.3930000002</v>
       </c>
+      <c r="F220" t="s">
+        <v>1045</v>
+      </c>
       <c r="G220" t="s">
         <v>337</v>
       </c>
@@ -27122,6 +28787,9 @@
       <c r="E221">
         <v>2442467.415</v>
       </c>
+      <c r="F221" t="s">
+        <v>1046</v>
+      </c>
       <c r="G221" t="s">
         <v>337</v>
       </c>
@@ -27223,6 +28891,9 @@
       <c r="E222">
         <v>2533529.4070000001</v>
       </c>
+      <c r="F222" t="s">
+        <v>1047</v>
+      </c>
       <c r="G222" t="s">
         <v>337</v>
       </c>
@@ -27324,6 +28995,9 @@
       <c r="E223">
         <v>2540951.8139999998</v>
       </c>
+      <c r="F223" t="s">
+        <v>1048</v>
+      </c>
       <c r="G223" t="s">
         <v>337</v>
       </c>
@@ -27425,6 +29099,9 @@
       <c r="E224">
         <v>2533000.0079999999</v>
       </c>
+      <c r="F224" t="s">
+        <v>1049</v>
+      </c>
       <c r="G224" t="s">
         <v>337</v>
       </c>
@@ -27526,6 +29203,9 @@
       <c r="E225">
         <v>2532491.057</v>
       </c>
+      <c r="F225" t="s">
+        <v>1050</v>
+      </c>
       <c r="G225" t="s">
         <v>337</v>
       </c>
@@ -27627,6 +29307,9 @@
       <c r="E226">
         <v>2555530.0090000001</v>
       </c>
+      <c r="F226" t="s">
+        <v>1051</v>
+      </c>
       <c r="G226" t="s">
         <v>337</v>
       </c>
@@ -27728,6 +29411,9 @@
       <c r="E227">
         <v>2557261.7280000001</v>
       </c>
+      <c r="F227" t="s">
+        <v>1052</v>
+      </c>
       <c r="G227" t="s">
         <v>337</v>
       </c>
@@ -27829,6 +29515,9 @@
       <c r="E228">
         <v>2549270.1170000001</v>
       </c>
+      <c r="F228" t="s">
+        <v>1053</v>
+      </c>
       <c r="G228" t="s">
         <v>337</v>
       </c>
@@ -27930,6 +29619,9 @@
       <c r="E229">
         <v>2560860.0090000001</v>
       </c>
+      <c r="F229" t="s">
+        <v>1054</v>
+      </c>
       <c r="G229" t="s">
         <v>337</v>
       </c>
@@ -28031,6 +29723,9 @@
       <c r="E230">
         <v>2558933.77</v>
       </c>
+      <c r="F230" t="s">
+        <v>1055</v>
+      </c>
       <c r="G230" t="s">
         <v>337</v>
       </c>
@@ -28132,6 +29827,9 @@
       <c r="E231">
         <v>2544407.247</v>
       </c>
+      <c r="F231" t="s">
+        <v>1056</v>
+      </c>
       <c r="G231" t="s">
         <v>337</v>
       </c>
@@ -28233,6 +29931,9 @@
       <c r="E232">
         <v>2516891.5610000002</v>
       </c>
+      <c r="F232" t="s">
+        <v>1057</v>
+      </c>
       <c r="G232" t="s">
         <v>337</v>
       </c>
@@ -28334,6 +30035,9 @@
       <c r="E233">
         <v>2563033.2650000001</v>
       </c>
+      <c r="F233" t="s">
+        <v>1058</v>
+      </c>
       <c r="G233" t="s">
         <v>337</v>
       </c>
@@ -28435,6 +30139,9 @@
       <c r="E234">
         <v>2532700.0079999999</v>
       </c>
+      <c r="F234" t="s">
+        <v>1059</v>
+      </c>
       <c r="G234" t="s">
         <v>337</v>
       </c>
@@ -28536,6 +30243,9 @@
       <c r="E235">
         <v>2654168.3739999998</v>
       </c>
+      <c r="F235" t="s">
+        <v>1060</v>
+      </c>
       <c r="G235" t="s">
         <v>385</v>
       </c>
@@ -28637,6 +30347,9 @@
       <c r="E236">
         <v>2654295.4649999999</v>
       </c>
+      <c r="F236" t="s">
+        <v>1061</v>
+      </c>
       <c r="G236" t="s">
         <v>385</v>
       </c>
@@ -28738,6 +30451,9 @@
       <c r="E237">
         <v>2652945.4649999999</v>
       </c>
+      <c r="F237" t="s">
+        <v>1062</v>
+      </c>
       <c r="G237" t="s">
         <v>385</v>
       </c>
@@ -28839,6 +30555,9 @@
       <c r="E238">
         <v>2652825.71</v>
       </c>
+      <c r="F238" t="s">
+        <v>1063</v>
+      </c>
       <c r="G238" t="s">
         <v>385</v>
       </c>
@@ -28940,6 +30659,9 @@
       <c r="E239">
         <v>2654597.8730000001</v>
       </c>
+      <c r="F239" t="s">
+        <v>1064</v>
+      </c>
       <c r="G239" t="s">
         <v>385</v>
       </c>
@@ -29041,6 +30763,9 @@
       <c r="E240">
         <v>2654262.057</v>
       </c>
+      <c r="F240" t="s">
+        <v>1065</v>
+      </c>
       <c r="G240" t="s">
         <v>385</v>
       </c>
@@ -29142,6 +30867,9 @@
       <c r="E241">
         <v>2652017.5830000001</v>
       </c>
+      <c r="F241" t="s">
+        <v>1066</v>
+      </c>
       <c r="G241" t="s">
         <v>385</v>
       </c>
@@ -29243,6 +30971,9 @@
       <c r="E242">
         <v>2651960.0090000001</v>
       </c>
+      <c r="F242" t="s">
+        <v>1067</v>
+      </c>
       <c r="G242" t="s">
         <v>385</v>
       </c>
@@ -29344,6 +31075,9 @@
       <c r="E243">
         <v>2655905.0630000001</v>
       </c>
+      <c r="F243" t="s">
+        <v>1068</v>
+      </c>
       <c r="G243" t="s">
         <v>385</v>
       </c>
@@ -29445,6 +31179,9 @@
       <c r="E244">
         <v>2654266.179</v>
       </c>
+      <c r="F244" t="s">
+        <v>1069</v>
+      </c>
       <c r="G244" t="s">
         <v>385</v>
       </c>
@@ -29546,6 +31283,9 @@
       <c r="E245">
         <v>2652455.6260000002</v>
       </c>
+      <c r="F245" t="s">
+        <v>1070</v>
+      </c>
       <c r="G245" t="s">
         <v>385</v>
       </c>
@@ -29647,6 +31387,9 @@
       <c r="E246">
         <v>2652711.915</v>
       </c>
+      <c r="F246" t="s">
+        <v>1071</v>
+      </c>
       <c r="G246" t="s">
         <v>385</v>
       </c>
@@ -29748,6 +31491,9 @@
       <c r="E247">
         <v>2654368.716</v>
       </c>
+      <c r="F247" t="s">
+        <v>1072</v>
+      </c>
       <c r="G247" t="s">
         <v>385</v>
       </c>
@@ -29849,6 +31595,9 @@
       <c r="E248">
         <v>2656151.5649999999</v>
       </c>
+      <c r="F248" t="s">
+        <v>1073</v>
+      </c>
       <c r="G248" t="s">
         <v>385</v>
       </c>
@@ -29950,6 +31699,9 @@
       <c r="E249">
         <v>2669345.6030000001</v>
       </c>
+      <c r="F249" t="s">
+        <v>1074</v>
+      </c>
       <c r="G249" t="s">
         <v>385</v>
       </c>
@@ -30051,6 +31803,9 @@
       <c r="E250">
         <v>2658710.0090000001</v>
       </c>
+      <c r="F250" t="s">
+        <v>1075</v>
+      </c>
       <c r="G250" t="s">
         <v>385</v>
       </c>
@@ -30152,6 +31907,9 @@
       <c r="E251">
         <v>2660971.372</v>
       </c>
+      <c r="F251" t="s">
+        <v>1076</v>
+      </c>
       <c r="G251" t="s">
         <v>385</v>
       </c>
@@ -30253,6 +32011,9 @@
       <c r="E252">
         <v>2656780.0090000001</v>
       </c>
+      <c r="F252" t="s">
+        <v>1077</v>
+      </c>
       <c r="G252" t="s">
         <v>385</v>
       </c>
@@ -30354,6 +32115,9 @@
       <c r="E253">
         <v>2652193.2740000002</v>
       </c>
+      <c r="F253" t="s">
+        <v>1078</v>
+      </c>
       <c r="G253" t="s">
         <v>385</v>
       </c>
@@ -30455,6 +32219,9 @@
       <c r="E254">
         <v>2651943.7009999999</v>
       </c>
+      <c r="F254" t="s">
+        <v>1079</v>
+      </c>
       <c r="G254" t="s">
         <v>385</v>
       </c>
@@ -30556,6 +32323,9 @@
       <c r="E255">
         <v>2653721.37</v>
       </c>
+      <c r="F255" t="s">
+        <v>1080</v>
+      </c>
       <c r="G255" t="s">
         <v>385</v>
       </c>
@@ -30657,6 +32427,9 @@
       <c r="E256">
         <v>2651067.9419999998</v>
       </c>
+      <c r="F256" t="s">
+        <v>1081</v>
+      </c>
       <c r="G256" t="s">
         <v>385</v>
       </c>
@@ -30758,6 +32531,9 @@
       <c r="E257">
         <v>2647994.2990000001</v>
       </c>
+      <c r="F257" t="s">
+        <v>1082</v>
+      </c>
       <c r="G257" t="s">
         <v>385</v>
       </c>
@@ -30859,6 +32635,9 @@
       <c r="E258">
         <v>2649417.773</v>
       </c>
+      <c r="F258" t="s">
+        <v>1083</v>
+      </c>
       <c r="G258" t="s">
         <v>385</v>
       </c>
@@ -30960,6 +32739,9 @@
       <c r="E259">
         <v>2651026.25</v>
       </c>
+      <c r="F259" t="s">
+        <v>1084</v>
+      </c>
       <c r="G259" t="s">
         <v>385</v>
       </c>
@@ -31061,6 +32843,9 @@
       <c r="E260">
         <v>2654604.7940000002</v>
       </c>
+      <c r="F260" t="s">
+        <v>1085</v>
+      </c>
       <c r="G260" t="s">
         <v>385</v>
       </c>
@@ -31162,6 +32947,9 @@
       <c r="E261">
         <v>2640759.5890000002</v>
       </c>
+      <c r="F261" t="s">
+        <v>1086</v>
+      </c>
       <c r="G261" t="s">
         <v>385</v>
       </c>
@@ -31263,6 +33051,9 @@
       <c r="E262">
         <v>2638101.7390000001</v>
       </c>
+      <c r="F262" t="s">
+        <v>1087</v>
+      </c>
       <c r="G262" t="s">
         <v>385</v>
       </c>
@@ -31364,6 +33155,9 @@
       <c r="E263">
         <v>2637570.0660000001</v>
       </c>
+      <c r="F263" t="s">
+        <v>1088</v>
+      </c>
       <c r="G263" t="s">
         <v>385</v>
       </c>
@@ -31465,6 +33259,9 @@
       <c r="E264">
         <v>2644601.5550000002</v>
       </c>
+      <c r="F264" t="s">
+        <v>1089</v>
+      </c>
       <c r="G264" t="s">
         <v>385</v>
       </c>
@@ -31566,6 +33363,9 @@
       <c r="E265">
         <v>2642280.3769999999</v>
       </c>
+      <c r="F265" t="s">
+        <v>1090</v>
+      </c>
       <c r="G265" t="s">
         <v>385</v>
       </c>
@@ -31667,6 +33467,9 @@
       <c r="E266">
         <v>2635119.8930000002</v>
       </c>
+      <c r="F266" t="s">
+        <v>1091</v>
+      </c>
       <c r="G266" t="s">
         <v>385</v>
       </c>
@@ -31768,6 +33571,9 @@
       <c r="E267">
         <v>2640560.0090000001</v>
       </c>
+      <c r="F267" t="s">
+        <v>1092</v>
+      </c>
       <c r="G267" t="s">
         <v>385</v>
       </c>
@@ -31869,6 +33675,9 @@
       <c r="E268">
         <v>2631100.4679999999</v>
       </c>
+      <c r="F268" t="s">
+        <v>1093</v>
+      </c>
       <c r="G268" t="s">
         <v>385</v>
       </c>
@@ -31970,6 +33779,9 @@
       <c r="E269">
         <v>2626626.9470000002</v>
       </c>
+      <c r="F269" t="s">
+        <v>1094</v>
+      </c>
       <c r="G269" t="s">
         <v>385</v>
       </c>
@@ -32071,6 +33883,9 @@
       <c r="E270">
         <v>2627879.9530000002</v>
       </c>
+      <c r="F270" t="s">
+        <v>1095</v>
+      </c>
       <c r="G270" t="s">
         <v>385</v>
       </c>
@@ -32172,6 +33987,9 @@
       <c r="E271">
         <v>2627545.5290000001</v>
       </c>
+      <c r="F271" t="s">
+        <v>1096</v>
+      </c>
       <c r="G271" t="s">
         <v>385</v>
       </c>
@@ -32273,6 +34091,9 @@
       <c r="E272">
         <v>2629803.3790000002</v>
       </c>
+      <c r="F272" t="s">
+        <v>1097</v>
+      </c>
       <c r="G272" t="s">
         <v>385</v>
       </c>
@@ -32374,6 +34195,9 @@
       <c r="E273">
         <v>2622909.6320000002</v>
       </c>
+      <c r="F273" t="s">
+        <v>1098</v>
+      </c>
       <c r="G273" t="s">
         <v>385</v>
       </c>
@@ -32475,6 +34299,9 @@
       <c r="E274">
         <v>2633084.3339999998</v>
       </c>
+      <c r="F274" t="s">
+        <v>1099</v>
+      </c>
       <c r="G274" t="s">
         <v>385</v>
       </c>
@@ -32576,6 +34403,9 @@
       <c r="E275">
         <v>2618952.943</v>
       </c>
+      <c r="F275" t="s">
+        <v>1100</v>
+      </c>
       <c r="G275" t="s">
         <v>385</v>
       </c>
@@ -32677,6 +34507,9 @@
       <c r="E276">
         <v>2617451.8679999998</v>
       </c>
+      <c r="F276" t="s">
+        <v>1101</v>
+      </c>
       <c r="G276" t="s">
         <v>385</v>
       </c>
@@ -32778,6 +34611,9 @@
       <c r="E277">
         <v>2616866.0649999999</v>
       </c>
+      <c r="F277" t="s">
+        <v>1102</v>
+      </c>
       <c r="G277" t="s">
         <v>385</v>
       </c>
@@ -32879,6 +34715,9 @@
       <c r="E278">
         <v>2599375.9160000002</v>
       </c>
+      <c r="F278" t="s">
+        <v>1103</v>
+      </c>
       <c r="G278" t="s">
         <v>385</v>
       </c>
@@ -32980,6 +34819,9 @@
       <c r="E279">
         <v>2602556.2459999998</v>
       </c>
+      <c r="F279" t="s">
+        <v>1104</v>
+      </c>
       <c r="G279" t="s">
         <v>385</v>
       </c>
@@ -33081,6 +34923,9 @@
       <c r="E280">
         <v>2598943.6320000002</v>
       </c>
+      <c r="F280" t="s">
+        <v>1105</v>
+      </c>
       <c r="G280" t="s">
         <v>385</v>
       </c>
@@ -33182,6 +35027,9 @@
       <c r="E281">
         <v>2602240.0090000001</v>
       </c>
+      <c r="F281" t="s">
+        <v>1106</v>
+      </c>
       <c r="G281" t="s">
         <v>385</v>
       </c>
@@ -33283,6 +35131,9 @@
       <c r="E282">
         <v>2595140.0090000001</v>
       </c>
+      <c r="F282" t="s">
+        <v>1107</v>
+      </c>
       <c r="G282" t="s">
         <v>385</v>
       </c>
@@ -33384,6 +35235,9 @@
       <c r="E283">
         <v>2608407.96</v>
       </c>
+      <c r="F283" t="s">
+        <v>1108</v>
+      </c>
       <c r="G283" t="s">
         <v>385</v>
       </c>
@@ -33485,6 +35339,9 @@
       <c r="E284">
         <v>2610665.0639999998</v>
       </c>
+      <c r="F284" t="s">
+        <v>1109</v>
+      </c>
       <c r="G284" t="s">
         <v>385</v>
       </c>
@@ -33586,6 +35443,9 @@
       <c r="E285">
         <v>2597750.0269999998</v>
       </c>
+      <c r="F285" t="s">
+        <v>1110</v>
+      </c>
       <c r="G285" t="s">
         <v>385</v>
       </c>
@@ -33687,6 +35547,9 @@
       <c r="E286">
         <v>2595481.75</v>
       </c>
+      <c r="F286" t="s">
+        <v>1111</v>
+      </c>
       <c r="G286" t="s">
         <v>385</v>
       </c>
@@ -33788,6 +35651,9 @@
       <c r="E287">
         <v>2616578.9130000002</v>
       </c>
+      <c r="F287" t="s">
+        <v>1112</v>
+      </c>
       <c r="G287" t="s">
         <v>385</v>
       </c>
@@ -33889,6 +35755,9 @@
       <c r="E288">
         <v>2580695.1919999998</v>
       </c>
+      <c r="F288" t="s">
+        <v>1113</v>
+      </c>
       <c r="G288" t="s">
         <v>385</v>
       </c>
@@ -33990,6 +35859,9 @@
       <c r="E289">
         <v>2580297.3810000001</v>
       </c>
+      <c r="F289" t="s">
+        <v>1114</v>
+      </c>
       <c r="G289" t="s">
         <v>385</v>
       </c>
@@ -34091,6 +35963,9 @@
       <c r="E290">
         <v>2579930.0090000001</v>
       </c>
+      <c r="F290" t="s">
+        <v>1115</v>
+      </c>
       <c r="G290" t="s">
         <v>385</v>
       </c>
@@ -34192,6 +36067,9 @@
       <c r="E291">
         <v>2579911.8679999998</v>
       </c>
+      <c r="F291" t="s">
+        <v>1116</v>
+      </c>
       <c r="G291" t="s">
         <v>385</v>
       </c>
@@ -34293,6 +36171,9 @@
       <c r="E292">
         <v>2588021.486</v>
       </c>
+      <c r="F292" t="s">
+        <v>1117</v>
+      </c>
       <c r="G292" t="s">
         <v>385</v>
       </c>
@@ -34394,6 +36275,9 @@
       <c r="E293">
         <v>2586727.304</v>
       </c>
+      <c r="F293" t="s">
+        <v>1118</v>
+      </c>
       <c r="G293" t="s">
         <v>385</v>
       </c>
@@ -34495,6 +36379,9 @@
       <c r="E294">
         <v>2591799.2379999999</v>
       </c>
+      <c r="F294" t="s">
+        <v>1119</v>
+      </c>
       <c r="G294" t="s">
         <v>385</v>
       </c>
@@ -34596,6 +36483,9 @@
       <c r="E295">
         <v>2594397.2259999998</v>
       </c>
+      <c r="F295" t="s">
+        <v>1120</v>
+      </c>
       <c r="G295" t="s">
         <v>385</v>
       </c>
@@ -34697,6 +36587,9 @@
       <c r="E296">
         <v>2595930.9369999999</v>
       </c>
+      <c r="F296" t="s">
+        <v>1121</v>
+      </c>
       <c r="G296" t="s">
         <v>385</v>
       </c>
@@ -34798,6 +36691,9 @@
       <c r="E297">
         <v>2591929.0219999999</v>
       </c>
+      <c r="F297" t="s">
+        <v>1122</v>
+      </c>
       <c r="G297" t="s">
         <v>385</v>
       </c>
@@ -34899,6 +36795,9 @@
       <c r="E298">
         <v>2586390.0090000001</v>
       </c>
+      <c r="F298" t="s">
+        <v>1123</v>
+      </c>
       <c r="G298" t="s">
         <v>385</v>
       </c>
@@ -35000,6 +36899,9 @@
       <c r="E299">
         <v>2575823.335</v>
       </c>
+      <c r="F299" t="s">
+        <v>1124</v>
+      </c>
       <c r="G299" t="s">
         <v>385</v>
       </c>
@@ -35101,6 +37003,9 @@
       <c r="E300">
         <v>2563371.8849999998</v>
       </c>
+      <c r="F300" t="s">
+        <v>1125</v>
+      </c>
       <c r="G300" t="s">
         <v>385</v>
       </c>
@@ -35202,6 +37107,9 @@
       <c r="E301">
         <v>2573713.5380000002</v>
       </c>
+      <c r="F301" t="s">
+        <v>1126</v>
+      </c>
       <c r="G301" t="s">
         <v>385</v>
       </c>
@@ -35303,6 +37211,9 @@
       <c r="E302">
         <v>2566601.503</v>
       </c>
+      <c r="F302" t="s">
+        <v>1127</v>
+      </c>
       <c r="G302" t="s">
         <v>385</v>
       </c>
@@ -35404,6 +37315,9 @@
       <c r="E303">
         <v>2575179.1</v>
       </c>
+      <c r="F303" t="s">
+        <v>1128</v>
+      </c>
       <c r="G303" t="s">
         <v>385</v>
       </c>
@@ -35505,6 +37419,9 @@
       <c r="E304">
         <v>2561514.6880000001</v>
       </c>
+      <c r="F304" t="s">
+        <v>1129</v>
+      </c>
       <c r="G304" t="s">
         <v>385</v>
       </c>
@@ -35606,6 +37523,9 @@
       <c r="E305">
         <v>2561447.7059999998</v>
       </c>
+      <c r="F305" t="s">
+        <v>1130</v>
+      </c>
       <c r="G305" t="s">
         <v>385</v>
       </c>
@@ -35707,6 +37627,9 @@
       <c r="E306">
         <v>2572440.62</v>
       </c>
+      <c r="F306" t="s">
+        <v>1131</v>
+      </c>
       <c r="G306" t="s">
         <v>385</v>
       </c>
@@ -35808,6 +37731,9 @@
       <c r="E307">
         <v>2568027.7969999998</v>
       </c>
+      <c r="F307" t="s">
+        <v>1132</v>
+      </c>
       <c r="G307" t="s">
         <v>385</v>
       </c>
@@ -35909,6 +37835,9 @@
       <c r="E308">
         <v>2668233.5989999999</v>
       </c>
+      <c r="F308" t="s">
+        <v>1133</v>
+      </c>
       <c r="G308" t="s">
         <v>385</v>
       </c>
@@ -36010,6 +37939,9 @@
       <c r="E309">
         <v>2671487.7089999998</v>
       </c>
+      <c r="F309" t="s">
+        <v>1134</v>
+      </c>
       <c r="G309" t="s">
         <v>385</v>
       </c>
@@ -36111,6 +38043,9 @@
       <c r="E310">
         <v>2673913.389</v>
       </c>
+      <c r="F310" t="s">
+        <v>1135</v>
+      </c>
       <c r="G310" t="s">
         <v>385</v>
       </c>
@@ -36212,6 +38147,9 @@
       <c r="E311">
         <v>2689313.182</v>
       </c>
+      <c r="F311" t="s">
+        <v>1136</v>
+      </c>
       <c r="G311" t="s">
         <v>385</v>
       </c>
@@ -36313,6 +38251,9 @@
       <c r="E312">
         <v>2664300.554</v>
       </c>
+      <c r="F312" t="s">
+        <v>1137</v>
+      </c>
       <c r="G312" t="s">
         <v>385</v>
       </c>
@@ -36414,6 +38355,9 @@
       <c r="E313">
         <v>2666542.1680000001</v>
       </c>
+      <c r="F313" t="s">
+        <v>1138</v>
+      </c>
       <c r="G313" t="s">
         <v>385</v>
       </c>
@@ -36515,6 +38459,9 @@
       <c r="E314">
         <v>2661126.0959999999</v>
       </c>
+      <c r="F314" t="s">
+        <v>1139</v>
+      </c>
       <c r="G314" t="s">
         <v>385</v>
       </c>
@@ -36616,6 +38563,9 @@
       <c r="E315">
         <v>2651290.8190000001</v>
       </c>
+      <c r="F315" t="s">
+        <v>1140</v>
+      </c>
       <c r="G315" t="s">
         <v>385</v>
       </c>
@@ -36717,6 +38667,9 @@
       <c r="E316">
         <v>2655504.017</v>
       </c>
+      <c r="F316" t="s">
+        <v>1141</v>
+      </c>
       <c r="G316" t="s">
         <v>385</v>
       </c>
@@ -36818,6 +38771,9 @@
       <c r="E317">
         <v>2643186.7790000001</v>
       </c>
+      <c r="F317" t="s">
+        <v>1142</v>
+      </c>
       <c r="G317" t="s">
         <v>385</v>
       </c>
@@ -36919,6 +38875,9 @@
       <c r="E318">
         <v>2646503.25</v>
       </c>
+      <c r="F318" t="s">
+        <v>1143</v>
+      </c>
       <c r="G318" t="s">
         <v>385</v>
       </c>
@@ -37020,6 +38979,9 @@
       <c r="E319">
         <v>2623580.0090000001</v>
       </c>
+      <c r="F319" t="s">
+        <v>1144</v>
+      </c>
       <c r="G319" t="s">
         <v>385</v>
       </c>
@@ -37121,6 +39083,9 @@
       <c r="E320">
         <v>2622485.7999999998</v>
       </c>
+      <c r="F320" t="s">
+        <v>1145</v>
+      </c>
       <c r="G320" t="s">
         <v>385</v>
       </c>
@@ -37222,6 +39187,9 @@
       <c r="E321">
         <v>2631140.0090000001</v>
       </c>
+      <c r="F321" t="s">
+        <v>1146</v>
+      </c>
       <c r="G321" t="s">
         <v>385</v>
       </c>
@@ -37323,6 +39291,9 @@
       <c r="E322">
         <v>2608200.0090000001</v>
       </c>
+      <c r="F322" t="s">
+        <v>1147</v>
+      </c>
       <c r="G322" t="s">
         <v>385</v>
       </c>
@@ -37424,6 +39395,9 @@
       <c r="E323">
         <v>2634210.0090000001</v>
       </c>
+      <c r="F323" t="s">
+        <v>1148</v>
+      </c>
       <c r="G323" t="s">
         <v>385</v>
       </c>
@@ -37525,6 +39499,9 @@
       <c r="E324">
         <v>2599099.0449999999</v>
       </c>
+      <c r="F324" t="s">
+        <v>1149</v>
+      </c>
       <c r="G324" t="s">
         <v>385</v>
       </c>
@@ -37626,6 +39603,9 @@
       <c r="E325">
         <v>2582570.0090000001</v>
       </c>
+      <c r="F325" t="s">
+        <v>1150</v>
+      </c>
       <c r="G325" t="s">
         <v>385</v>
       </c>
@@ -37727,6 +39707,9 @@
       <c r="E326">
         <v>2592951.6850000001</v>
       </c>
+      <c r="F326" t="s">
+        <v>1151</v>
+      </c>
       <c r="G326" t="s">
         <v>385</v>
       </c>
@@ -37828,6 +39811,9 @@
       <c r="E327">
         <v>2592046.7179999999</v>
       </c>
+      <c r="F327" t="s">
+        <v>1152</v>
+      </c>
       <c r="G327" t="s">
         <v>385</v>
       </c>
@@ -37929,6 +39915,9 @@
       <c r="E328">
         <v>2589281.1359999999</v>
       </c>
+      <c r="F328" t="s">
+        <v>1153</v>
+      </c>
       <c r="G328" t="s">
         <v>385</v>
       </c>
@@ -38030,6 +40019,9 @@
       <c r="E329">
         <v>2575127.9980000001</v>
       </c>
+      <c r="F329" t="s">
+        <v>1154</v>
+      </c>
       <c r="G329" t="s">
         <v>385</v>
       </c>
@@ -38131,6 +40123,9 @@
       <c r="E330">
         <v>2577076.6719999998</v>
       </c>
+      <c r="F330" t="s">
+        <v>1155</v>
+      </c>
       <c r="G330" t="s">
         <v>385</v>
       </c>
@@ -38232,6 +40227,9 @@
       <c r="E331">
         <v>2568586.0040000002</v>
       </c>
+      <c r="F331" t="s">
+        <v>1156</v>
+      </c>
       <c r="G331" t="s">
         <v>385</v>
       </c>
@@ -38333,6 +40331,9 @@
       <c r="E332">
         <v>2599448.0499999998</v>
       </c>
+      <c r="F332" t="s">
+        <v>1157</v>
+      </c>
       <c r="G332" t="s">
         <v>385</v>
       </c>
@@ -38434,6 +40435,9 @@
       <c r="E333">
         <v>2571303.13</v>
       </c>
+      <c r="F333" t="s">
+        <v>1158</v>
+      </c>
       <c r="G333" t="s">
         <v>385</v>
       </c>
@@ -38535,6 +40539,9 @@
       <c r="E334">
         <v>2614860.0090000001</v>
       </c>
+      <c r="F334" t="s">
+        <v>1159</v>
+      </c>
       <c r="G334" t="s">
         <v>385</v>
       </c>
@@ -38636,6 +40643,9 @@
       <c r="E335">
         <v>2614362.307</v>
       </c>
+      <c r="F335" t="s">
+        <v>1160</v>
+      </c>
       <c r="G335" t="s">
         <v>385</v>
       </c>
@@ -38737,6 +40747,9 @@
       <c r="E336">
         <v>2678006.0929999999</v>
       </c>
+      <c r="F336" t="s">
+        <v>1161</v>
+      </c>
       <c r="G336" t="s">
         <v>385</v>
       </c>
@@ -38838,6 +40851,9 @@
       <c r="E337">
         <v>2652024.3629999999</v>
       </c>
+      <c r="F337" t="s">
+        <v>1162</v>
+      </c>
       <c r="G337" t="s">
         <v>385</v>
       </c>
@@ -38931,10 +40947,6 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="J338" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="339" spans="1:33" x14ac:dyDescent="0.3">
       <c r="H339" t="s">
@@ -38943,10 +40955,6 @@
       <c r="I339" t="str">
         <f t="shared" si="21"/>
         <v/>
-      </c>
-      <c r="J339" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -38957,35 +40965,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>44603</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>84688</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>84727</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>